--- a/result/NCDC_weather_data/stations_imputed/53068099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/53068099999.xlsx
@@ -557,7 +557,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.3</v>
+        <v>-19.61111111111111</v>
       </c>
       <c r="I2" t="n">
         <v>103.73</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>251.374910484971</v>
+        <v>68.16535612333847</v>
       </c>
     </row>
     <row r="3">
@@ -618,7 +618,7 @@
         <v>-15.22222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>-7</v>
+        <v>-21.66666666666667</v>
       </c>
       <c r="I3" t="n">
         <v>103.22</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>192.5690440059333</v>
+        <v>57.83601303795799</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
         <v>-15.44444444444444</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.9</v>
+        <v>-24.38888888888889</v>
       </c>
       <c r="I4" t="n">
         <v>103.53</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>133.4742453602163</v>
+        <v>46.293663627662</v>
       </c>
     </row>
     <row r="5">
@@ -740,7 +740,7 @@
         <v>-16.11111111111111</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.800000000000001</v>
+        <v>-22.66666666666667</v>
       </c>
       <c r="I5" t="n">
         <v>103.51</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>180.2971040119861</v>
+        <v>57.02338727927789</v>
       </c>
     </row>
     <row r="6">
@@ -801,7 +801,7 @@
         <v>-15.94444444444444</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I6" t="n">
         <v>103.92</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>199.7704318806622</v>
+        <v>60.51247394634615</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +862,7 @@
         <v>-15.16666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I7" t="n">
         <v>103.94</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>218.2649532840348</v>
+        <v>62.5053693123358</v>
       </c>
     </row>
     <row r="8">
@@ -923,7 +923,7 @@
         <v>-11.83333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.4</v>
+        <v>-20.22222222222222</v>
       </c>
       <c r="I8" t="n">
         <v>103.51</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>178.1398909985953</v>
+        <v>49.76790411161173</v>
       </c>
     </row>
     <row r="9">
@@ -984,7 +984,7 @@
         <v>-12.66666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.8</v>
+        <v>-18.77777777777778</v>
       </c>
       <c r="I9" t="n">
         <v>103.4</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>231.179538311265</v>
+        <v>60.23678355224785</v>
       </c>
     </row>
     <row r="10">
@@ -1045,7 +1045,7 @@
         <v>-12</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8</v>
+        <v>-18.22222222222222</v>
       </c>
       <c r="I10" t="n">
         <v>103.4</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>235.771935839775</v>
+        <v>59.84886161546987</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>-17.72222222222222</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.1</v>
+        <v>-22.83333333333334</v>
       </c>
       <c r="I11" t="n">
         <v>103.58</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>201.5760658748865</v>
+        <v>64.31350221068264</v>
       </c>
     </row>
     <row r="12">
@@ -1167,7 +1167,7 @@
         <v>-16.66666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.1</v>
+        <v>-22.27777777777778</v>
       </c>
       <c r="I12" t="n">
         <v>103.47</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>199.4301619003391</v>
+        <v>61.80939280257557</v>
       </c>
     </row>
     <row r="13">
@@ -1228,7 +1228,7 @@
         <v>-14.27777777777778</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.9</v>
+        <v>-21.05555555555556</v>
       </c>
       <c r="I13" t="n">
         <v>103.63</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>193.8379808890074</v>
+        <v>56.44337778421102</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>-10.38888888888889</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8</v>
+        <v>-18.22222222222222</v>
       </c>
       <c r="I14" t="n">
         <v>102.45</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>207.3506123805692</v>
+        <v>52.63433097771635</v>
       </c>
     </row>
     <row r="15">
@@ -1350,7 +1350,7 @@
         <v>-11</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.5</v>
+        <v>-18.61111111111111</v>
       </c>
       <c r="I15" t="n">
         <v>102.23</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>206.7779252711021</v>
+        <v>53.45581702328679</v>
       </c>
     </row>
     <row r="16">
@@ -1411,7 +1411,7 @@
         <v>-16.11111111111111</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.3</v>
+        <v>-19.61111111111111</v>
       </c>
       <c r="I16" t="n">
         <v>103.62</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>274.3423444216736</v>
+        <v>74.39343716179275</v>
       </c>
     </row>
     <row r="17">
@@ -1472,7 +1472,7 @@
         <v>-15.22222222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I17" t="n">
         <v>103.65</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>171.4564355416672</v>
+        <v>53.75705817627582</v>
       </c>
     </row>
     <row r="18">
@@ -1533,7 +1533,7 @@
         <v>-10.27777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.300000000000001</v>
+        <v>-22.38888888888889</v>
       </c>
       <c r="I18" t="n">
         <v>103.04</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>116.7813925001041</v>
+        <v>36.40346374419786</v>
       </c>
     </row>
     <row r="19">
@@ -1594,7 +1594,7 @@
         <v>-11.83333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.4</v>
+        <v>-19.11111111111111</v>
       </c>
       <c r="I19" t="n">
         <v>103.21</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>206.8191440902926</v>
+        <v>54.75078805598289</v>
       </c>
     </row>
     <row r="20">
@@ -1655,7 +1655,7 @@
         <v>-15.94444444444444</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I20" t="n">
         <v>103.44</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>217.3718154286513</v>
+        <v>63.82946144845062</v>
       </c>
     </row>
     <row r="21">
@@ -1716,7 +1716,7 @@
         <v>-14</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.7</v>
+        <v>-19.27777777777778</v>
       </c>
       <c r="I21" t="n">
         <v>102.89</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>241.0372790319702</v>
+        <v>64.32053740700393</v>
       </c>
     </row>
     <row r="22">
@@ -1777,7 +1777,7 @@
         <v>-12.11111111111111</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>-14.44444444444444</v>
       </c>
       <c r="I22" t="n">
         <v>102.87</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>385.6631775253632</v>
+        <v>82.74377769738625</v>
       </c>
     </row>
     <row r="23">
@@ -1838,7 +1838,7 @@
         <v>-13.05555555555556</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>-16.16666666666667</v>
       </c>
       <c r="I23" t="n">
         <v>103.33</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>335.0265267233486</v>
+        <v>77.45151154490087</v>
       </c>
     </row>
     <row r="24">
@@ -1899,7 +1899,7 @@
         <v>-12.88888888888889</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I24" t="n">
         <v>103.21</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>354.7090909036532</v>
+        <v>80.0217188238921</v>
       </c>
     </row>
     <row r="25">
@@ -1960,7 +1960,7 @@
         <v>-15.5</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.4</v>
+        <v>-18</v>
       </c>
       <c r="I25" t="n">
         <v>103.02</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>322.9009859014369</v>
+        <v>81.12202917859491</v>
       </c>
     </row>
     <row r="26">
@@ -2021,7 +2021,7 @@
         <v>-20.72222222222222</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.5</v>
+        <v>-23.61111111111111</v>
       </c>
       <c r="I26" t="n">
         <v>103.8</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>233.3410427543733</v>
+        <v>77.58924810084</v>
       </c>
     </row>
     <row r="27">
@@ -2082,7 +2082,7 @@
         <v>-25.44444444444444</v>
       </c>
       <c r="H27" t="n">
-        <v>-19.9</v>
+        <v>-28.83333333333333</v>
       </c>
       <c r="I27" t="n">
         <v>104.48</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>163.1136105476169</v>
+        <v>73.23460213443596</v>
       </c>
     </row>
     <row r="28">
@@ -2143,7 +2143,7 @@
         <v>-24.61111111111111</v>
       </c>
       <c r="H28" t="n">
-        <v>-18.5</v>
+        <v>-28.05555555555556</v>
       </c>
       <c r="I28" t="n">
         <v>104.64</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>170.5549149062501</v>
+        <v>73.03256421532389</v>
       </c>
     </row>
     <row r="29">
@@ -2204,7 +2204,7 @@
         <v>-23.33333333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>-17.2</v>
+        <v>-27.33333333333334</v>
       </c>
       <c r="I29" t="n">
         <v>104.15</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>169.8352255215671</v>
+        <v>69.65453979216967</v>
       </c>
     </row>
     <row r="30">
@@ -2265,7 +2265,7 @@
         <v>-21.61111111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>-12.7</v>
+        <v>-24.83333333333334</v>
       </c>
       <c r="I30" t="n">
         <v>103.44</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>211.4206626696752</v>
+        <v>75.14570682849731</v>
       </c>
     </row>
     <row r="31">
@@ -2326,7 +2326,7 @@
         <v>-17.22222222222222</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.5</v>
+        <v>-20.27777777777778</v>
       </c>
       <c r="I31" t="n">
         <v>103.01</v>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>275.1598948098937</v>
+        <v>77.08331487880329</v>
       </c>
     </row>
     <row r="32">
@@ -2387,7 +2387,7 @@
         <v>-21.94444444444445</v>
       </c>
       <c r="H32" t="n">
-        <v>-13.3</v>
+        <v>-25.16666666666667</v>
       </c>
       <c r="I32" t="n">
         <v>104.08</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>207.3553435180299</v>
+        <v>75.08059845532512</v>
       </c>
     </row>
     <row r="33">
@@ -2448,7 +2448,7 @@
         <v>-23.16666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>-15.1</v>
+        <v>-26.16666666666667</v>
       </c>
       <c r="I33" t="n">
         <v>104.31</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>199.3095655625136</v>
+        <v>76.37179313826154</v>
       </c>
     </row>
     <row r="34">
@@ -2509,7 +2509,7 @@
         <v>-23.16666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>-15.7</v>
+        <v>-26.5</v>
       </c>
       <c r="I34" t="n">
         <v>104.18</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>189.6616102525349</v>
+        <v>74.08422372225289</v>
       </c>
     </row>
     <row r="35">
@@ -2570,7 +2570,7 @@
         <v>-23.22222222222222</v>
       </c>
       <c r="H35" t="n">
-        <v>-16.3</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="I35" t="n">
         <v>104.39</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>181.3242292531233</v>
+        <v>72.2132303908237</v>
       </c>
     </row>
     <row r="36">
@@ -2631,7 +2631,7 @@
         <v>-22.05555555555556</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.4</v>
+        <v>-25.77777777777778</v>
       </c>
       <c r="I36" t="n">
         <v>104.57</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>191.4134445761118</v>
+        <v>71.73599511926886</v>
       </c>
     </row>
     <row r="37">
@@ -2692,7 +2692,7 @@
         <v>-18.33333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.199999999999999</v>
+        <v>-22.33333333333334</v>
       </c>
       <c r="I37" t="n">
         <v>104.4</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>227.7157511589878</v>
+        <v>70.77966743759794</v>
       </c>
     </row>
     <row r="38">
@@ -2753,7 +2753,7 @@
         <v>-19.27777777777778</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.699999999999999</v>
+        <v>-22.61111111111111</v>
       </c>
       <c r="I38" t="n">
         <v>104.06</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>237.3763176431762</v>
+        <v>74.85813116455998</v>
       </c>
     </row>
     <row r="39">
@@ -2814,7 +2814,7 @@
         <v>-19.33333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>-9</v>
+        <v>-22.77777777777778</v>
       </c>
       <c r="I39" t="n">
         <v>103.86</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>232.9815497998553</v>
+        <v>74.11678779685499</v>
       </c>
     </row>
     <row r="40">
@@ -2875,7 +2875,7 @@
         <v>-14.11111111111111</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.7</v>
+        <v>-18.16666666666667</v>
       </c>
       <c r="I40" t="n">
         <v>103.16</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>281.8053568667099</v>
+        <v>71.34886023241869</v>
       </c>
     </row>
     <row r="41">
@@ -2936,7 +2936,7 @@
         <v>-13.38888888888889</v>
       </c>
       <c r="H41" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I41" t="n">
         <v>102.5</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>325.1792554772497</v>
+        <v>76.67869720786913</v>
       </c>
     </row>
     <row r="42">
@@ -2997,7 +2997,7 @@
         <v>-16.33333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.7</v>
+        <v>-20.38888888888889</v>
       </c>
       <c r="I42" t="n">
         <v>103.08</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>251.6075905008502</v>
+        <v>70.87258086065921</v>
       </c>
     </row>
     <row r="43">
@@ -3058,7 +3058,7 @@
         <v>-17.83333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I43" t="n">
         <v>103.82</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>272.702834622636</v>
+        <v>78.09495356053343</v>
       </c>
     </row>
     <row r="44">
@@ -3119,7 +3119,7 @@
         <v>-19.83333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.2</v>
+        <v>-23.44444444444445</v>
       </c>
       <c r="I44" t="n">
         <v>103.75</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>221.2938121963178</v>
+        <v>72.92950681348431</v>
       </c>
     </row>
     <row r="45">
@@ -3180,7 +3180,7 @@
         <v>-23</v>
       </c>
       <c r="H45" t="n">
-        <v>-15.4</v>
+        <v>-26.33333333333333</v>
       </c>
       <c r="I45" t="n">
         <v>103.71</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>191.5832946596838</v>
+        <v>74.11807104282362</v>
       </c>
     </row>
     <row r="46">
@@ -3241,7 +3241,7 @@
         <v>-25.44444444444444</v>
       </c>
       <c r="H46" t="n">
-        <v>-19.9</v>
+        <v>-28.83333333333333</v>
       </c>
       <c r="I46" t="n">
         <v>104.17</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>163.1136105476169</v>
+        <v>73.23460213443596</v>
       </c>
     </row>
     <row r="47">
@@ -3302,7 +3302,7 @@
         <v>-26.72222222222222</v>
       </c>
       <c r="H47" t="n">
-        <v>-22.2</v>
+        <v>-30.11111111111111</v>
       </c>
       <c r="I47" t="n">
         <v>104.06</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>150.0192956823447</v>
+        <v>72.96323005352276</v>
       </c>
     </row>
     <row r="48">
@@ -3363,7 +3363,7 @@
         <v>-24</v>
       </c>
       <c r="H48" t="n">
-        <v>-17.7</v>
+        <v>-27.61111111111111</v>
       </c>
       <c r="I48" t="n">
         <v>103.81</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>172.7909314041909</v>
+        <v>72.04513044784737</v>
       </c>
     </row>
     <row r="49">
@@ -3424,7 +3424,7 @@
         <v>-17</v>
       </c>
       <c r="H49" t="n">
-        <v>-5.8</v>
+        <v>-21</v>
       </c>
       <c r="I49" t="n">
         <v>103.15</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>244.7502813775806</v>
+        <v>71.06997922151942</v>
       </c>
     </row>
     <row r="50">
@@ -3485,7 +3485,7 @@
         <v>-20.16666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>-12.8</v>
+        <v>-24.88888888888889</v>
       </c>
       <c r="I50" t="n">
         <v>104.26</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>184.9997910870785</v>
+        <v>65.95773711907404</v>
       </c>
     </row>
     <row r="51">
@@ -3546,7 +3546,7 @@
         <v>-17.66666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.9</v>
+        <v>-23.27777777777778</v>
       </c>
       <c r="I51" t="n">
         <v>103.93</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>188.4091162039357</v>
+        <v>61.54265978572086</v>
       </c>
     </row>
     <row r="52">
@@ -3607,7 +3607,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H52" t="n">
-        <v>-6.7</v>
+        <v>-21.5</v>
       </c>
       <c r="I52" t="n">
         <v>103.54</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>194.367781356354</v>
+        <v>57.88289443571686</v>
       </c>
     </row>
     <row r="53">
@@ -3668,7 +3668,7 @@
         <v>-18.22222222222222</v>
       </c>
       <c r="H53" t="n">
-        <v>-10</v>
+        <v>-23.33333333333334</v>
       </c>
       <c r="I53" t="n">
         <v>104.23</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>195.9211541605605</v>
+        <v>64.18600957795336</v>
       </c>
     </row>
     <row r="54">
@@ -3729,7 +3729,7 @@
         <v>-17.88888888888889</v>
       </c>
       <c r="H54" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I54" t="n">
         <v>104.38</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>250.0394324223461</v>
+        <v>74.04333975508771</v>
       </c>
     </row>
     <row r="55">
@@ -3790,7 +3790,7 @@
         <v>-17.27777777777778</v>
       </c>
       <c r="H55" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I55" t="n">
         <v>103.97</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>252.4405510438574</v>
+        <v>73.09921515445828</v>
       </c>
     </row>
     <row r="56">
@@ -3851,7 +3851,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.6</v>
+        <v>-19.22222222222222</v>
       </c>
       <c r="I56" t="n">
         <v>103.15</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>264.8055687111225</v>
+        <v>70.47509047282323</v>
       </c>
     </row>
     <row r="57">
@@ -3912,7 +3912,7 @@
         <v>-11.61111111111111</v>
       </c>
       <c r="H57" t="n">
-        <v>2.7</v>
+        <v>-16.27777777777778</v>
       </c>
       <c r="I57" t="n">
         <v>102.93</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>294.0417221228009</v>
+        <v>68.31259967297856</v>
       </c>
     </row>
     <row r="58">
@@ -3973,7 +3973,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>-14.44444444444444</v>
       </c>
       <c r="I58" t="n">
         <v>102.49</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>298.7409234589458</v>
+        <v>64.0946660202561</v>
       </c>
     </row>
     <row r="59">
@@ -4034,7 +4034,7 @@
         <v>-8.444444444444445</v>
       </c>
       <c r="H59" t="n">
-        <v>7.7</v>
+        <v>-13.5</v>
       </c>
       <c r="I59" t="n">
         <v>102.14</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>324.2797652169204</v>
+        <v>66.87453792743102</v>
       </c>
     </row>
     <row r="60">
@@ -4095,7 +4095,7 @@
         <v>-7.388888888888889</v>
       </c>
       <c r="H60" t="n">
-        <v>6.5</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="I60" t="n">
         <v>102.83</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>275.21627546592</v>
+        <v>58.3584296074815</v>
       </c>
     </row>
     <row r="61">
@@ -4156,7 +4156,7 @@
         <v>-4.722222222222222</v>
       </c>
       <c r="H61" t="n">
-        <v>8.4</v>
+        <v>-13.11111111111111</v>
       </c>
       <c r="I61" t="n">
         <v>102.15</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>255.6622514173692</v>
+        <v>51.88596374442221</v>
       </c>
     </row>
     <row r="62">
@@ -4217,7 +4217,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H62" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I62" t="n">
         <v>101.8</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>270.7594819226256</v>
+        <v>54.20728648583513</v>
       </c>
     </row>
     <row r="63">
@@ -4278,7 +4278,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H63" t="n">
-        <v>6.8</v>
+        <v>-14</v>
       </c>
       <c r="I63" t="n">
         <v>101.02</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>165.5776382925697</v>
+        <v>34.86501040699449</v>
       </c>
     </row>
     <row r="64">
@@ -4339,7 +4339,7 @@
         <v>-8.333333333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>-5.3</v>
+        <v>-20.72222222222222</v>
       </c>
       <c r="I64" t="n">
         <v>102.44</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>126.2369431742906</v>
+        <v>36.15095614411927</v>
       </c>
     </row>
     <row r="65">
@@ -4400,7 +4400,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.9</v>
+        <v>-18.83333333333333</v>
       </c>
       <c r="I65" t="n">
         <v>102.49</v>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>133.7100863602657</v>
+        <v>34.93174944288251</v>
       </c>
     </row>
     <row r="66">
@@ -4461,7 +4461,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>4.7</v>
+        <v>-15.16666666666667</v>
       </c>
       <c r="I66" t="n">
         <v>101.89</v>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>157.8355119599638</v>
+        <v>34.92655891209602</v>
       </c>
     </row>
     <row r="67">
@@ -4522,7 +4522,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H67" t="n">
-        <v>5.9</v>
+        <v>-14.5</v>
       </c>
       <c r="I67" t="n">
         <v>101.54</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>129.4616091227655</v>
+        <v>27.84146207670252</v>
       </c>
     </row>
     <row r="68">
@@ -4583,7 +4583,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H68" t="n">
-        <v>17.8</v>
+        <v>-7.888888888888889</v>
       </c>
       <c r="I68" t="n">
         <v>101.72</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>282.9041208091409</v>
+        <v>46.98236788566844</v>
       </c>
     </row>
     <row r="69">
@@ -4644,7 +4644,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H69" t="n">
-        <v>7.5</v>
+        <v>-13.61111111111111</v>
       </c>
       <c r="I69" t="n">
         <v>101.14</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>104.2725142234873</v>
+        <v>21.6028648943208</v>
       </c>
     </row>
     <row r="70">
@@ -4705,7 +4705,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H70" t="n">
-        <v>20.8</v>
+        <v>-6.222222222222222</v>
       </c>
       <c r="I70" t="n">
         <v>101.88</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>321.4547232736992</v>
+        <v>50.34444181092623</v>
       </c>
     </row>
     <row r="71">
@@ -4766,7 +4766,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>13.7</v>
+        <v>-10.16666666666667</v>
       </c>
       <c r="I71" t="n">
         <v>101.03</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>163.7663531307415</v>
+        <v>29.58668465489695</v>
       </c>
     </row>
     <row r="72">
@@ -4827,7 +4827,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H72" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I72" t="n">
         <v>101.33</v>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>135.9529828857023</v>
+        <v>28.296743653383</v>
       </c>
     </row>
     <row r="73">
@@ -4888,7 +4888,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H73" t="n">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="I73" t="n">
         <v>101.31</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>267.760061081989</v>
+        <v>48.06946123351094</v>
       </c>
     </row>
     <row r="74">
@@ -4949,7 +4949,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H74" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I74" t="n">
         <v>100.79</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>188.5112974242876</v>
+        <v>31.87739925371725</v>
       </c>
     </row>
     <row r="75">
@@ -5010,7 +5010,7 @@
         <v>-2.722222222222221</v>
       </c>
       <c r="H75" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I75" t="n">
         <v>101.76</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>340.455649349492</v>
+        <v>59.85584069250768</v>
       </c>
     </row>
     <row r="76">
@@ -5071,7 +5071,7 @@
         <v>-5.111111111111111</v>
       </c>
       <c r="H76" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I76" t="n">
         <v>103.08</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>205.5328200312684</v>
+        <v>45.37230677625743</v>
       </c>
     </row>
     <row r="77">
@@ -5132,7 +5132,7 @@
         <v>-1.944444444444445</v>
       </c>
       <c r="H77" t="n">
-        <v>15.5</v>
+        <v>-9.166666666666668</v>
       </c>
       <c r="I77" t="n">
         <v>101.84</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>331.9150421221323</v>
+        <v>57.75395201724209</v>
       </c>
     </row>
     <row r="78">
@@ -5193,7 +5193,7 @@
         <v>-5.277777777777778</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I78" t="n">
         <v>102</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>277.6796693664391</v>
+        <v>55.59273965866131</v>
       </c>
     </row>
     <row r="79">
@@ -5254,7 +5254,7 @@
         <v>-3.611111111111111</v>
       </c>
       <c r="H79" t="n">
-        <v>8.4</v>
+        <v>-13.11111111111111</v>
       </c>
       <c r="I79" t="n">
         <v>101.85</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>235.190355242855</v>
+        <v>47.7312476813286</v>
       </c>
     </row>
     <row r="80">
@@ -5315,7 +5315,7 @@
         <v>-6.222222222222222</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I80" t="n">
         <v>102.59</v>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>209.9954760019054</v>
+        <v>47.3745933381737</v>
       </c>
     </row>
     <row r="81">
@@ -5376,7 +5376,7 @@
         <v>-4</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I81" t="n">
         <v>102.89</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
-        <v>102.2729591196504</v>
+        <v>28.03411376464303</v>
       </c>
     </row>
     <row r="82">
@@ -5437,7 +5437,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H82" t="n">
-        <v>4.7</v>
+        <v>-15.16666666666667</v>
       </c>
       <c r="I82" t="n">
         <v>101.67</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>133.6921838750406</v>
+        <v>29.58401362415075</v>
       </c>
     </row>
     <row r="83">
@@ -5498,7 +5498,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.4</v>
+        <v>-18</v>
       </c>
       <c r="I83" t="n">
         <v>100.85</v>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>75.32363433520896</v>
+        <v>18.92346672562898</v>
       </c>
     </row>
     <row r="84">
@@ -5559,7 +5559,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="I84" t="n">
         <v>100.93</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>103.988493310535</v>
+        <v>23.40278694992785</v>
       </c>
     </row>
     <row r="85">
@@ -5620,7 +5620,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H85" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>101.73</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>66.11618592717222</v>
+        <v>18.88166785144604</v>
       </c>
     </row>
     <row r="86">
@@ -5681,7 +5681,7 @@
         <v>-3</v>
       </c>
       <c r="H86" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I86" t="n">
         <v>102.36</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>68.39715357307196</v>
+        <v>21.13740423715116</v>
       </c>
     </row>
     <row r="87">
@@ -5742,7 +5742,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>-7.2</v>
+        <v>-21.77777777777778</v>
       </c>
       <c r="I87" t="n">
         <v>101.6</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>45.97727695058026</v>
+        <v>13.88740913986912</v>
       </c>
     </row>
     <row r="88">
@@ -5803,7 +5803,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H88" t="n">
-        <v>10.2</v>
+        <v>-12.11111111111111</v>
       </c>
       <c r="I88" t="n">
         <v>100.66</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>107.9881795356783</v>
+        <v>21.04652932095952</v>
       </c>
     </row>
     <row r="89">
@@ -5864,7 +5864,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H89" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I89" t="n">
         <v>102.08</v>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>161.2752129660189</v>
+        <v>32.28803516033955</v>
       </c>
     </row>
     <row r="90">
@@ -5925,7 +5925,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="I90" t="n">
         <v>103.15</v>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>148.8164867113536</v>
+        <v>31.19024115813648</v>
       </c>
     </row>
     <row r="91">
@@ -5986,7 +5986,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H91" t="n">
-        <v>-4.7</v>
+        <v>-20.38888888888889</v>
       </c>
       <c r="I91" t="n">
         <v>103.75</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>68.11413729268828</v>
+        <v>19.1863238045427</v>
       </c>
     </row>
     <row r="92">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I92" t="n">
         <v>103.34</v>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>97.84389602813027</v>
+        <v>24.51791748390446</v>
       </c>
     </row>
     <row r="93">
@@ -6108,7 +6108,7 @@
         <v>6.722222222222223</v>
       </c>
       <c r="H93" t="n">
-        <v>2.6</v>
+        <v>-16.33333333333333</v>
       </c>
       <c r="I93" t="n">
         <v>102.43</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
-        <v>74.97432265807139</v>
+        <v>17.46132769900434</v>
       </c>
     </row>
     <row r="94">
@@ -6169,7 +6169,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.7</v>
+        <v>-18.72222222222222</v>
       </c>
       <c r="I94" t="n">
         <v>101.43</v>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>43.01759196749681</v>
+        <v>11.17934407123143</v>
       </c>
     </row>
     <row r="95">
@@ -6230,7 +6230,7 @@
         <v>10</v>
       </c>
       <c r="H95" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I95" t="n">
         <v>101.67</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>76.70506235203972</v>
+        <v>16.41832225735347</v>
       </c>
     </row>
     <row r="96">
@@ -6291,7 +6291,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>8.199999999999999</v>
+        <v>-13.22222222222222</v>
       </c>
       <c r="I96" t="n">
         <v>102.65</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>135.2291168572475</v>
+        <v>27.56984909536731</v>
       </c>
     </row>
     <row r="97">
@@ -6352,7 +6352,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H97" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I97" t="n">
         <v>101.96</v>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>153.2116466268117</v>
+        <v>26.9922941411524</v>
       </c>
     </row>
     <row r="98">
@@ -6413,7 +6413,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H98" t="n">
-        <v>14.2</v>
+        <v>-9.888888888888889</v>
       </c>
       <c r="I98" t="n">
         <v>100.99</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="n">
-        <v>111.3187453527599</v>
+        <v>19.90059510810694</v>
       </c>
     </row>
     <row r="99">
@@ -6474,7 +6474,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H99" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I99" t="n">
         <v>100.34</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>87.56863741092226</v>
+        <v>16.09183253871697</v>
       </c>
     </row>
     <row r="100">
@@ -6535,7 +6535,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H100" t="n">
-        <v>17.2</v>
+        <v>-8.222222222222223</v>
       </c>
       <c r="I100" t="n">
         <v>99.76000000000001</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>95.74356913708384</v>
+        <v>16.09264727753347</v>
       </c>
     </row>
     <row r="101">
@@ -6596,7 +6596,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H101" t="n">
-        <v>12.2</v>
+        <v>-11</v>
       </c>
       <c r="I101" t="n">
         <v>100.23</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
-        <v>88.58307586531545</v>
+        <v>16.52487641927111</v>
       </c>
     </row>
     <row r="102">
@@ -6657,7 +6657,7 @@
         <v>4.555555555555557</v>
       </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="I102" t="n">
         <v>101.92</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="n">
-        <v>214.8928037272038</v>
+        <v>37.00980480766059</v>
       </c>
     </row>
     <row r="103">
@@ -6718,7 +6718,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H103" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I103" t="n">
         <v>101.81</v>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="n">
-        <v>141.2152167675611</v>
+        <v>26.74632255766751</v>
       </c>
     </row>
     <row r="104">
@@ -6779,7 +6779,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H104" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I104" t="n">
         <v>102.08</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>446.8921937393698</v>
+        <v>65.68045276650986</v>
       </c>
     </row>
     <row r="105">
@@ -6840,7 +6840,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H105" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I105" t="n">
         <v>103.37</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="n">
-        <v>100.0794211107775</v>
+        <v>23.71713794939153</v>
       </c>
     </row>
     <row r="106">
@@ -6901,7 +6901,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H106" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I106" t="n">
         <v>103</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="n">
-        <v>54.18990757726682</v>
+        <v>14.85403421386585</v>
       </c>
     </row>
     <row r="107">
@@ -6962,7 +6962,7 @@
         <v>9.111111111111111</v>
       </c>
       <c r="H107" t="n">
-        <v>5.1</v>
+        <v>-14.94444444444444</v>
       </c>
       <c r="I107" t="n">
         <v>102.08</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="n">
-        <v>75.97096763301755</v>
+        <v>16.6510633747551</v>
       </c>
     </row>
     <row r="108">
@@ -7023,7 +7023,7 @@
         <v>8</v>
       </c>
       <c r="H108" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I108" t="n">
         <v>101.96</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="n">
-        <v>95.33726603086153</v>
+        <v>19.84314076990642</v>
       </c>
     </row>
     <row r="109">
@@ -7084,7 +7084,7 @@
         <v>10.5</v>
       </c>
       <c r="H109" t="n">
-        <v>8.5</v>
+        <v>-13.05555555555556</v>
       </c>
       <c r="I109" t="n">
         <v>101.97</v>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="n">
-        <v>87.42045855488503</v>
+        <v>17.70141577928063</v>
       </c>
     </row>
     <row r="110">
@@ -7145,7 +7145,7 @@
         <v>15.5</v>
       </c>
       <c r="H110" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I110" t="n">
         <v>100.6</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="n">
-        <v>66.53596683905739</v>
+        <v>13.23105614811002</v>
       </c>
     </row>
     <row r="111">
@@ -7206,7 +7206,7 @@
         <v>13.5</v>
       </c>
       <c r="H111" t="n">
-        <v>15.1</v>
+        <v>-9.388888888888889</v>
       </c>
       <c r="I111" t="n">
         <v>99.40000000000001</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="n">
-        <v>110.9139268256644</v>
+        <v>19.45948343864111</v>
       </c>
     </row>
     <row r="112">
@@ -7267,7 +7267,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H112" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I112" t="n">
         <v>101.19</v>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="n">
-        <v>331.6671851913572</v>
+        <v>52.85202065240973</v>
       </c>
     </row>
     <row r="113">
@@ -7328,7 +7328,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H113" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="I113" t="n">
         <v>100.25</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="n">
-        <v>89.33719432673529</v>
+        <v>16.7377653291325</v>
       </c>
     </row>
     <row r="114">
@@ -7389,7 +7389,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H114" t="n">
-        <v>18</v>
+        <v>-7.777777777777779</v>
       </c>
       <c r="I114" t="n">
         <v>100.1</v>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="n">
-        <v>131.473641849497</v>
+        <v>21.74719718038006</v>
       </c>
     </row>
     <row r="115">
@@ -7450,7 +7450,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H115" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I115" t="n">
         <v>100.04</v>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="n">
-        <v>107.7963191579979</v>
+        <v>18.22843697344319</v>
       </c>
     </row>
     <row r="116">
@@ -7511,7 +7511,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H116" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I116" t="n">
         <v>100.35</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="n">
-        <v>143.1929716810819</v>
+        <v>23.26785389421654</v>
       </c>
     </row>
     <row r="117">
@@ -7572,7 +7572,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H117" t="n">
-        <v>5.2</v>
+        <v>-14.88888888888889</v>
       </c>
       <c r="I117" t="n">
         <v>102.29</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>112.2047791197493</v>
+        <v>24.53410119457844</v>
       </c>
     </row>
     <row r="118">
@@ -7633,7 +7633,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H118" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I118" t="n">
         <v>102.15</v>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>168.3085455903933</v>
+        <v>31.73933339521074</v>
       </c>
     </row>
     <row r="119">
@@ -7694,7 +7694,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H119" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I119" t="n">
         <v>101.78</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="n">
-        <v>213.0840796383061</v>
+        <v>32.13587107091222</v>
       </c>
     </row>
     <row r="120">
@@ -7755,7 +7755,7 @@
         <v>5</v>
       </c>
       <c r="H120" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="I120" t="n">
         <v>102.48</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="n">
-        <v>100</v>
+        <v>21.97006292376403</v>
       </c>
     </row>
     <row r="121">
@@ -7816,7 +7816,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H121" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I121" t="n">
         <v>102.25</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="n">
-        <v>76.09216178501941</v>
+        <v>16.79769151833403</v>
       </c>
     </row>
     <row r="122">
@@ -7877,7 +7877,7 @@
         <v>16.5</v>
       </c>
       <c r="H122" t="n">
-        <v>8.6</v>
+        <v>-13</v>
       </c>
       <c r="I122" t="n">
         <v>100.7</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="n">
-        <v>59.53649052212956</v>
+        <v>12.02793827406963</v>
       </c>
     </row>
     <row r="123">
@@ -7938,7 +7938,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I123" t="n">
         <v>100.21</v>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="n">
-        <v>19.94169563437872</v>
+        <v>4.895672095284743</v>
       </c>
     </row>
     <row r="124">
@@ -7999,7 +7999,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H124" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I124" t="n">
         <v>99.47</v>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="n">
-        <v>109.6515007466605</v>
+        <v>16.50615692801587</v>
       </c>
     </row>
     <row r="125">
@@ -8060,7 +8060,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H125" t="n">
-        <v>27.1</v>
+        <v>-2.722222222222221</v>
       </c>
       <c r="I125" t="n">
         <v>101.19</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="n">
-        <v>269.4277196852099</v>
+        <v>37.59653873229184</v>
       </c>
     </row>
     <row r="126">
@@ -8121,7 +8121,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H126" t="n">
-        <v>5.7</v>
+        <v>-14.61111111111111</v>
       </c>
       <c r="I126" t="n">
         <v>102.62</v>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="n">
-        <v>84.11365544887597</v>
+        <v>18.17479949122539</v>
       </c>
     </row>
     <row r="127">
@@ -8182,7 +8182,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H127" t="n">
-        <v>2.9</v>
+        <v>-16.16666666666667</v>
       </c>
       <c r="I127" t="n">
         <v>102.06</v>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="n">
-        <v>64.36626458568567</v>
+        <v>14.88020824326251</v>
       </c>
     </row>
     <row r="128">
@@ -8243,7 +8243,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H128" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I128" t="n">
         <v>101.48</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="n">
-        <v>119.5876920074086</v>
+        <v>20.22236680791941</v>
       </c>
     </row>
     <row r="129">
@@ -8304,7 +8304,7 @@
         <v>17.38888888888889</v>
       </c>
       <c r="H129" t="n">
-        <v>29.8</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="I129" t="n">
         <v>100.66</v>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="n">
-        <v>211.4771545427765</v>
+        <v>28.17065778867799</v>
       </c>
     </row>
     <row r="130">
@@ -8365,7 +8365,7 @@
         <v>5.444444444444443</v>
       </c>
       <c r="H130" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I130" t="n">
         <v>101.75</v>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="n">
-        <v>310.3359362966488</v>
+        <v>46.71576430814356</v>
       </c>
     </row>
     <row r="131">
@@ -8426,7 +8426,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H131" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I131" t="n">
         <v>102.04</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="n">
-        <v>139.0447053754435</v>
+        <v>26.97943642233823</v>
       </c>
     </row>
     <row r="132">
@@ -8487,7 +8487,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H132" t="n">
-        <v>9.1</v>
+        <v>-12.72222222222222</v>
       </c>
       <c r="I132" t="n">
         <v>101.93</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>125.9681390009286</v>
+        <v>25.16255146652113</v>
       </c>
     </row>
     <row r="133">
@@ -8548,7 +8548,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H133" t="n">
-        <v>20.2</v>
+        <v>-6.555555555555556</v>
       </c>
       <c r="I133" t="n">
         <v>101.78</v>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="n">
-        <v>212.5029496063815</v>
+        <v>33.66699898980842</v>
       </c>
     </row>
     <row r="134">
@@ -8609,7 +8609,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>19.4</v>
+        <v>-7.000000000000001</v>
       </c>
       <c r="I134" t="n">
         <v>101.92</v>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="n">
-        <v>134.99432957045</v>
+        <v>21.72188826936344</v>
       </c>
     </row>
     <row r="135">
@@ -8670,7 +8670,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H135" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I135" t="n">
         <v>101.13</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
-        <v>100.1428702499324</v>
+        <v>17.49715816375583</v>
       </c>
     </row>
     <row r="136">
@@ -8731,7 +8731,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I136" t="n">
         <v>100.41</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
-        <v>73.72113174949749</v>
+        <v>13.63451993610473</v>
       </c>
     </row>
     <row r="137">
@@ -8792,7 +8792,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H137" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I137" t="n">
         <v>100.88</v>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>152.800786874976</v>
+        <v>23.21703146789074</v>
       </c>
     </row>
     <row r="138">
@@ -8853,7 +8853,7 @@
         <v>21.5</v>
       </c>
       <c r="H138" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I138" t="n">
         <v>101.14</v>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
-        <v>101.8529622769893</v>
+        <v>15.65135198984265</v>
       </c>
     </row>
     <row r="139">
@@ -8914,7 +8914,7 @@
         <v>19.5</v>
       </c>
       <c r="H139" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I139" t="n">
         <v>100.93</v>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>188.4806670338406</v>
+        <v>24.98074659888151</v>
       </c>
     </row>
     <row r="140">
@@ -8975,7 +8975,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H140" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I140" t="n">
         <v>100.7</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>92.76455964825536</v>
+        <v>14.61209280679033</v>
       </c>
     </row>
     <row r="141">
@@ -9036,7 +9036,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H141" t="n">
-        <v>29.2</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="I141" t="n">
         <v>100.31</v>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
-        <v>143.8644917318901</v>
+        <v>19.3599649864065</v>
       </c>
     </row>
     <row r="142">
@@ -9097,7 +9097,7 @@
         <v>24</v>
       </c>
       <c r="H142" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I142" t="n">
         <v>100.21</v>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
-        <v>180.5421215103665</v>
+        <v>22.37790544065376</v>
       </c>
     </row>
     <row r="143">
@@ -9158,7 +9158,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H143" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I143" t="n">
         <v>100.25</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="n">
-        <v>195.2599765359087</v>
+        <v>24.24065105314152</v>
       </c>
     </row>
     <row r="144">
@@ -9219,7 +9219,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I144" t="n">
         <v>101.63</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="n">
-        <v>222.8667595107027</v>
+        <v>29.53819154115758</v>
       </c>
     </row>
     <row r="145">
@@ -9280,7 +9280,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>19.7</v>
+        <v>-6.833333333333334</v>
       </c>
       <c r="I145" t="n">
         <v>101.64</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="n">
-        <v>110.0532208853614</v>
+        <v>17.60546463551427</v>
       </c>
     </row>
     <row r="146">
@@ -9341,7 +9341,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H146" t="n">
-        <v>16.4</v>
+        <v>-8.666666666666668</v>
       </c>
       <c r="I146" t="n">
         <v>100.44</v>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="n">
-        <v>86.06343094035289</v>
+        <v>14.70171928166543</v>
       </c>
     </row>
     <row r="147">
@@ -9402,7 +9402,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I147" t="n">
         <v>99.5</v>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
-        <v>305.7536026784841</v>
+        <v>35.52014978572197</v>
       </c>
     </row>
     <row r="148">
@@ -9463,7 +9463,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H148" t="n">
-        <v>17.8</v>
+        <v>-7.888888888888889</v>
       </c>
       <c r="I148" t="n">
         <v>100.35</v>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="n">
-        <v>99.44160555210811</v>
+        <v>16.5144363462369</v>
       </c>
     </row>
     <row r="149">
@@ -9524,7 +9524,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H149" t="n">
-        <v>16.6</v>
+        <v>-8.555555555555555</v>
       </c>
       <c r="I149" t="n">
         <v>100.36</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="n">
-        <v>86.56256903463178</v>
+        <v>14.72700104702579</v>
       </c>
     </row>
     <row r="150">
@@ -9585,7 +9585,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H150" t="n">
-        <v>25.5</v>
+        <v>-3.611111111111111</v>
       </c>
       <c r="I150" t="n">
         <v>100.13</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>133.0832205574049</v>
+        <v>19.10492732030094</v>
       </c>
     </row>
     <row r="151">
@@ -9646,7 +9646,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H151" t="n">
-        <v>20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="I151" t="n">
         <v>99.42</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>73.29311058694452</v>
+        <v>11.65684947210369</v>
       </c>
     </row>
     <row r="152">
@@ -9707,7 +9707,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H152" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I152" t="n">
         <v>99.78999999999999</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="n">
-        <v>294.3568980922745</v>
+        <v>32.07805043264418</v>
       </c>
     </row>
     <row r="153">
@@ -9768,7 +9768,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H153" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I153" t="n">
         <v>100.37</v>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="n">
-        <v>207.9072005364968</v>
+        <v>27.32563182139339</v>
       </c>
     </row>
     <row r="154">
@@ -9829,7 +9829,7 @@
         <v>14.83333333333334</v>
       </c>
       <c r="H154" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I154" t="n">
         <v>100.75</v>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>472.6102881112432</v>
+        <v>52.53991096898973</v>
       </c>
     </row>
     <row r="155">
@@ -9890,7 +9890,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H155" t="n">
-        <v>33.4</v>
+        <v>0.777777777777777</v>
       </c>
       <c r="I155" t="n">
         <v>100.82</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="n">
-        <v>272.6289475652655</v>
+        <v>34.22638518864913</v>
       </c>
     </row>
     <row r="156">
@@ -9951,7 +9951,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H156" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I156" t="n">
         <v>100.32</v>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="n">
-        <v>183.7848517378524</v>
+        <v>23.7189484548566</v>
       </c>
     </row>
     <row r="157">
@@ -10012,7 +10012,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H157" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I157" t="n">
         <v>100.54</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>196.7199605419173</v>
+        <v>25.01771742218624</v>
       </c>
     </row>
     <row r="158">
@@ -10073,7 +10073,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H158" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I158" t="n">
         <v>100.35</v>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="n">
-        <v>260.5129370156898</v>
+        <v>31.34279841854374</v>
       </c>
     </row>
     <row r="159">
@@ -10134,7 +10134,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I159" t="n">
         <v>100.09</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>278.2350512839482</v>
+        <v>33.47497911338182</v>
       </c>
     </row>
     <row r="160">
@@ -10195,7 +10195,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H160" t="n">
-        <v>38.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I160" t="n">
         <v>100.12</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>364.3342521941635</v>
+        <v>42.19916101360442</v>
       </c>
     </row>
     <row r="161">
@@ -10256,7 +10256,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>45.9</v>
+        <v>7.722222222222221</v>
       </c>
       <c r="I161" t="n">
         <v>100.26</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>578.7838123100917</v>
+        <v>60.43373410228431</v>
       </c>
     </row>
     <row r="162">
@@ -10317,7 +10317,7 @@
         <v>17.83333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I162" t="n">
         <v>100.55</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>424.7135224968212</v>
+        <v>46.15379865168288</v>
       </c>
     </row>
     <row r="163">
@@ -10378,7 +10378,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H163" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I163" t="n">
         <v>100.64</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>302.5624116075152</v>
+        <v>33.97745309749822</v>
       </c>
     </row>
     <row r="164">
@@ -10439,7 +10439,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H164" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I164" t="n">
         <v>100.17</v>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>275.1776352692549</v>
+        <v>30.9021703858251</v>
       </c>
     </row>
     <row r="165">
@@ -10500,7 +10500,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H165" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I165" t="n">
         <v>99.82000000000001</v>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>259.4635877428322</v>
+        <v>28.47613378792975</v>
       </c>
     </row>
     <row r="166">
@@ -10561,7 +10561,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H166" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I166" t="n">
         <v>99.62</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>283.9014558602444</v>
+        <v>29.13250472697997</v>
       </c>
     </row>
     <row r="167">
@@ -10622,7 +10622,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H167" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I167" t="n">
         <v>99.89</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>276.0634540269567</v>
+        <v>28.90321159193492</v>
       </c>
     </row>
     <row r="168">
@@ -10683,7 +10683,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H168" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I168" t="n">
         <v>99.52000000000001</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>198.0687982986051</v>
+        <v>21.73805445547096</v>
       </c>
     </row>
     <row r="169">
@@ -10744,7 +10744,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H169" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I169" t="n">
         <v>99.90000000000001</v>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="n">
-        <v>248.3941047973</v>
+        <v>27.73342565412284</v>
       </c>
     </row>
     <row r="170">
@@ -10805,7 +10805,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H170" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I170" t="n">
         <v>100.24</v>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="n">
-        <v>771.615052203882</v>
+        <v>72.21767323846616</v>
       </c>
     </row>
     <row r="171">
@@ -10866,7 +10866,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I171" t="n">
         <v>100.19</v>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>639.3215230998718</v>
+        <v>60.05177687720519</v>
       </c>
     </row>
     <row r="172">
@@ -10927,7 +10927,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H172" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I172" t="n">
         <v>100.12</v>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>286.1057845648338</v>
+        <v>32.74679639788801</v>
       </c>
     </row>
     <row r="173">
@@ -10988,7 +10988,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H173" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I173" t="n">
         <v>99.62</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>172.8519016320953</v>
+        <v>20.70006415571524</v>
       </c>
     </row>
     <row r="174">
@@ -11049,7 +11049,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H174" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I174" t="n">
         <v>99.75</v>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="n">
-        <v>217.7822318206662</v>
+        <v>25.30029876074211</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>24</v>
       </c>
       <c r="H175" t="n">
-        <v>48.2</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="I175" t="n">
         <v>99.92999999999999</v>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>379.7770686124413</v>
+        <v>38.46105511123451</v>
       </c>
     </row>
     <row r="176">
@@ -11171,7 +11171,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H176" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I176" t="n">
         <v>99.92</v>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="n">
-        <v>976.9608054871854</v>
+        <v>85.91382296981089</v>
       </c>
     </row>
     <row r="177">
@@ -11232,7 +11232,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H177" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I177" t="n">
         <v>100.35</v>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>884.8750870995568</v>
+        <v>78.42621829083126</v>
       </c>
     </row>
     <row r="178">
@@ -11293,7 +11293,7 @@
         <v>23.27777777777778</v>
       </c>
       <c r="H178" t="n">
-        <v>53.8</v>
+        <v>12.11111111111111</v>
       </c>
       <c r="I178" t="n">
         <v>100.47</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>523.7252625324603</v>
+        <v>49.43166427977344</v>
       </c>
     </row>
     <row r="179">
@@ -11354,7 +11354,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H179" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I179" t="n">
         <v>100.24</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="n">
-        <v>361.2346695533296</v>
+        <v>35.60657679880715</v>
       </c>
     </row>
     <row r="180">
@@ -11415,7 +11415,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H180" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I180" t="n">
         <v>99.96000000000001</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="n">
-        <v>424.0893689622476</v>
+        <v>39.40871329427682</v>
       </c>
     </row>
     <row r="181">
@@ -11476,7 +11476,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H181" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I181" t="n">
         <v>99.73999999999999</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="n">
-        <v>822.1904890441592</v>
+        <v>70.9666287379991</v>
       </c>
     </row>
     <row r="182">
@@ -11537,7 +11537,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H182" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I182" t="n">
         <v>99.53</v>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="n">
-        <v>459.0742992544608</v>
+        <v>42.3082073528885</v>
       </c>
     </row>
     <row r="183">
@@ -11598,7 +11598,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>48.2</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="I183" t="n">
         <v>99.84999999999999</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>420.0730589435183</v>
+        <v>42.54193948518525</v>
       </c>
     </row>
     <row r="184">
@@ -11659,7 +11659,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H184" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I184" t="n">
         <v>100.15</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>262.1381185982328</v>
+        <v>29.18373199679045</v>
       </c>
     </row>
     <row r="185">
@@ -11720,7 +11720,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H185" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I185" t="n">
         <v>99.78999999999999</v>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>450.2532093626617</v>
+        <v>42.65182159872106</v>
       </c>
     </row>
     <row r="186">
@@ -11781,7 +11781,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I186" t="n">
         <v>100.34</v>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="n">
-        <v>352.3262504235152</v>
+        <v>38.28744308905547</v>
       </c>
     </row>
     <row r="187">
@@ -11842,7 +11842,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H187" t="n">
-        <v>39.9</v>
+        <v>4.388888888888888</v>
       </c>
       <c r="I187" t="n">
         <v>100.13</v>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>240.0652793749896</v>
+        <v>27.27561212772654</v>
       </c>
     </row>
     <row r="188">
@@ -11903,7 +11903,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H188" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I188" t="n">
         <v>100.09</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="n">
-        <v>232.6942766202086</v>
+        <v>26.39940314595485</v>
       </c>
     </row>
     <row r="189">
@@ -11964,7 +11964,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H189" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I189" t="n">
         <v>99.75</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>280.3526013953946</v>
+        <v>29.23356633054296</v>
       </c>
     </row>
     <row r="190">
@@ -12025,7 +12025,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H190" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I190" t="n">
         <v>100.135</v>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="n">
-        <v>533.1345734592119</v>
+        <v>51.25074917897325</v>
       </c>
     </row>
     <row r="191">
@@ -12086,7 +12086,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H191" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I191" t="n">
         <v>100.52</v>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>436.7582734828558</v>
+        <v>44.17394439619495</v>
       </c>
     </row>
     <row r="192">
@@ -12147,7 +12147,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H192" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I192" t="n">
         <v>100.52</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="n">
-        <v>250.2128464788703</v>
+        <v>27.65708857079763</v>
       </c>
     </row>
     <row r="193">
@@ -12208,7 +12208,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H193" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I193" t="n">
         <v>100.04</v>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="n">
-        <v>272.895854773511</v>
+        <v>29.0834552806295</v>
       </c>
     </row>
     <row r="194">
@@ -12269,7 +12269,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H194" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I194" t="n">
         <v>100.01</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="n">
-        <v>462.1778867151559</v>
+        <v>44.59487111608891</v>
       </c>
     </row>
     <row r="195">
@@ -12330,7 +12330,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H195" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I195" t="n">
         <v>100.48</v>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>298.1191691201022</v>
+        <v>32.99953267471815</v>
       </c>
     </row>
     <row r="196">
@@ -12391,7 +12391,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H196" t="n">
-        <v>39</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="I196" t="n">
         <v>100.3</v>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="n">
-        <v>233.3511346210028</v>
+        <v>26.86740660516597</v>
       </c>
     </row>
     <row r="197">
@@ -12452,7 +12452,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I197" t="n">
         <v>99.97</v>
@@ -12483,7 +12483,7 @@
       </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="n">
-        <v>200.6207408592095</v>
+        <v>23.03048316117975</v>
       </c>
     </row>
     <row r="198">
@@ -12513,7 +12513,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H198" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I198" t="n">
         <v>100.12</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="n">
-        <v>281.2541937183399</v>
+        <v>29.60699041247302</v>
       </c>
     </row>
     <row r="199">
@@ -12574,7 +12574,7 @@
         <v>31.27777777777778</v>
       </c>
       <c r="H199" t="n">
-        <v>42.2</v>
+        <v>5.666666666666669</v>
       </c>
       <c r="I199" t="n">
         <v>100.14</v>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="n">
-        <v>181.9614672545838</v>
+        <v>19.99865414575507</v>
       </c>
     </row>
     <row r="200">
@@ -12635,7 +12635,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H200" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I200" t="n">
         <v>100.59</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="n">
-        <v>688.7772958537801</v>
+        <v>64.775095088035</v>
       </c>
     </row>
     <row r="201">
@@ -12696,7 +12696,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H201" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I201" t="n">
         <v>99.8</v>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="n">
-        <v>284.0298046078856</v>
+        <v>30.18682611531683</v>
       </c>
     </row>
     <row r="202">
@@ -12757,7 +12757,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H202" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I202" t="n">
         <v>99.38</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="n">
-        <v>226.30720671837</v>
+        <v>23.88787943214231</v>
       </c>
     </row>
     <row r="203">
@@ -12818,7 +12818,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H203" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I203" t="n">
         <v>99.59999999999999</v>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="n">
-        <v>421.0526381339482</v>
+        <v>40.42628173961793</v>
       </c>
     </row>
     <row r="204">
@@ -12879,7 +12879,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H204" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I204" t="n">
         <v>99.97999999999999</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="n">
-        <v>350.5832641939365</v>
+        <v>36.4095854893592</v>
       </c>
     </row>
     <row r="205">
@@ -12940,7 +12940,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I205" t="n">
         <v>100.09</v>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>389.5281067298357</v>
+        <v>38.98996000994916</v>
       </c>
     </row>
     <row r="206">
@@ -13001,7 +13001,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H206" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I206" t="n">
         <v>100.11</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="n">
-        <v>323.8436259419277</v>
+        <v>33.45294588579258</v>
       </c>
     </row>
     <row r="207">
@@ -13062,7 +13062,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H207" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I207" t="n">
         <v>100.37</v>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>928.5583908761699</v>
+        <v>76.83627625568134</v>
       </c>
     </row>
     <row r="208">
@@ -13123,7 +13123,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H208" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I208" t="n">
         <v>100.07</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="n">
-        <v>783.9898350069225</v>
+        <v>63.76548097748898</v>
       </c>
     </row>
     <row r="209">
@@ -13184,7 +13184,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>59.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I209" t="n">
         <v>100.23</v>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="n">
-        <v>610.6877309327872</v>
+        <v>53.88344452559642</v>
       </c>
     </row>
     <row r="210">
@@ -13245,7 +13245,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H210" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I210" t="n">
         <v>99.92</v>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="n">
-        <v>819.6038767910586</v>
+        <v>69.6875095644548</v>
       </c>
     </row>
     <row r="211">
@@ -13306,7 +13306,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H211" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I211" t="n">
         <v>100.51</v>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="n">
-        <v>415.81553854668</v>
+        <v>41.8917235399295</v>
       </c>
     </row>
     <row r="212">
@@ -13367,7 +13367,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H212" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I212" t="n">
         <v>100.2</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="n">
-        <v>319.615845500952</v>
+        <v>32.53855985228077</v>
       </c>
     </row>
     <row r="213">
@@ -13428,7 +13428,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I213" t="n">
         <v>100.48</v>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="n">
-        <v>750.8305135831898</v>
+        <v>67.30182807156118</v>
       </c>
     </row>
     <row r="214">
@@ -13489,7 +13489,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H214" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I214" t="n">
         <v>99.95</v>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="n">
-        <v>585.2820958263014</v>
+        <v>54.19458072569433</v>
       </c>
     </row>
     <row r="215">
@@ -13550,7 +13550,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H215" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I215" t="n">
         <v>99.97999999999999</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="n">
-        <v>575.157007652957</v>
+        <v>54.0247732087393</v>
       </c>
     </row>
     <row r="216">
@@ -13611,7 +13611,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H216" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I216" t="n">
         <v>100.75</v>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>483.7161788761713</v>
+        <v>48.66916075800616</v>
       </c>
     </row>
     <row r="217">
@@ -13672,7 +13672,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H217" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I217" t="n">
         <v>100.26</v>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="n">
-        <v>318.7666186250017</v>
+        <v>33.64744173693883</v>
       </c>
     </row>
     <row r="218">
@@ -13733,7 +13733,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H218" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I218" t="n">
         <v>99.7</v>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="n">
-        <v>394.8939604687774</v>
+        <v>38.43658036737688</v>
       </c>
     </row>
     <row r="219">
@@ -13794,7 +13794,7 @@
         <v>20.5</v>
       </c>
       <c r="H219" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I219" t="n">
         <v>99.91</v>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="n">
-        <v>579.5156205014778</v>
+        <v>55.64069578267141</v>
       </c>
     </row>
     <row r="220">
@@ -13855,7 +13855,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H220" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I220" t="n">
         <v>100.64</v>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>358.0472866407223</v>
+        <v>39.46369687656507</v>
       </c>
     </row>
     <row r="221">
@@ -13916,7 +13916,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H221" t="n">
-        <v>39.6</v>
+        <v>4.222222222222223</v>
       </c>
       <c r="I221" t="n">
         <v>100.15</v>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>286.2515925905709</v>
+        <v>32.66695224662222</v>
       </c>
     </row>
     <row r="222">
@@ -13977,7 +13977,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H222" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I222" t="n">
         <v>101.57</v>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="n">
-        <v>199.6854306496298</v>
+        <v>26.42137249027155</v>
       </c>
     </row>
     <row r="223">
@@ -14038,7 +14038,7 @@
         <v>12</v>
       </c>
       <c r="H223" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I223" t="n">
         <v>101.78</v>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>276.1384741316049</v>
+        <v>37.67258454883818</v>
       </c>
     </row>
     <row r="224">
@@ -14099,7 +14099,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H224" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I224" t="n">
         <v>101.6</v>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>126.6848574902364</v>
+        <v>19.35749823023862</v>
       </c>
     </row>
     <row r="225">
@@ -14160,7 +14160,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H225" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I225" t="n">
         <v>100.96</v>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>887.5630836602982</v>
+        <v>87.26470319899128</v>
       </c>
     </row>
     <row r="226">
@@ -14221,7 +14221,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H226" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I226" t="n">
         <v>101.4</v>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>723.038027490805</v>
+        <v>70.37613140329935</v>
       </c>
     </row>
     <row r="227">
@@ -14282,7 +14282,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I227" t="n">
         <v>101.49</v>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>561.3963756416944</v>
+        <v>59.25824956895591</v>
       </c>
     </row>
     <row r="228">
@@ -14343,7 +14343,7 @@
         <v>18</v>
       </c>
       <c r="H228" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I228" t="n">
         <v>101.65</v>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="n">
-        <v>299.8428697680361</v>
+        <v>35.7428082464768</v>
       </c>
     </row>
     <row r="229">
@@ -14404,7 +14404,7 @@
         <v>23</v>
       </c>
       <c r="H229" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I229" t="n">
         <v>101.03</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>270.4321178501899</v>
+        <v>30.45763446659974</v>
       </c>
     </row>
     <row r="230">
@@ -14465,7 +14465,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H230" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I230" t="n">
         <v>100.66</v>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>749.4528213578502</v>
+        <v>73.8728911977298</v>
       </c>
     </row>
     <row r="231">
@@ -14526,7 +14526,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H231" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I231" t="n">
         <v>101.01</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>220.0556868445958</v>
+        <v>31.36532424785218</v>
       </c>
     </row>
     <row r="232">
@@ -14587,7 +14587,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H232" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I232" t="n">
         <v>101.44</v>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>252.0414026726141</v>
+        <v>30.3705419053174</v>
       </c>
     </row>
     <row r="233">
@@ -14648,7 +14648,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H233" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I233" t="n">
         <v>100.76</v>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>292.3068021804251</v>
+        <v>32.92128835763513</v>
       </c>
     </row>
     <row r="234">
@@ -14709,7 +14709,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I234" t="n">
         <v>101.39</v>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="n">
-        <v>263.9105759856224</v>
+        <v>30.34085901453534</v>
       </c>
     </row>
     <row r="235">
@@ -14770,7 +14770,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H235" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I235" t="n">
         <v>101.64</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>219.1856394680544</v>
+        <v>27.21091488622442</v>
       </c>
     </row>
     <row r="236">
@@ -14831,7 +14831,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H236" t="n">
-        <v>38.2</v>
+        <v>3.444444444444446</v>
       </c>
       <c r="I236" t="n">
         <v>101.42</v>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>238.1639866871264</v>
+        <v>27.75123414668537</v>
       </c>
     </row>
     <row r="237">
@@ -14892,7 +14892,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I237" t="n">
         <v>100.78</v>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="n">
-        <v>332.1057791166493</v>
+        <v>37.07990953308748</v>
       </c>
     </row>
     <row r="238">
@@ -14953,7 +14953,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I238" t="n">
         <v>100.46</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>233.5638915416627</v>
+        <v>29.80006942179376</v>
       </c>
     </row>
     <row r="239">
@@ -15014,7 +15014,7 @@
         <v>7.5</v>
       </c>
       <c r="H239" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I239" t="n">
         <v>102.43</v>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>238.3978310297714</v>
+        <v>37.26520118810824</v>
       </c>
     </row>
     <row r="240">
@@ -15075,7 +15075,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H240" t="n">
-        <v>24.6</v>
+        <v>-4.111111111111111</v>
       </c>
       <c r="I240" t="n">
         <v>101.7</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="n">
-        <v>223.9158504123199</v>
+        <v>32.67055761322128</v>
       </c>
     </row>
     <row r="241">
@@ -15136,7 +15136,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>27.4</v>
+        <v>-2.555555555555556</v>
       </c>
       <c r="I241" t="n">
         <v>100.69</v>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>196.6922021872764</v>
+        <v>27.30321445607189</v>
       </c>
     </row>
     <row r="242">
@@ -15197,7 +15197,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H242" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I242" t="n">
         <v>101.97</v>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>109.0163212422796</v>
+        <v>21.5813766854838</v>
       </c>
     </row>
     <row r="243">
@@ -15258,7 +15258,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H243" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I243" t="n">
         <v>101.43</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="n">
-        <v>172.8256492784121</v>
+        <v>24.41566185942494</v>
       </c>
     </row>
     <row r="244">
@@ -15319,7 +15319,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H244" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I244" t="n">
         <v>100.27</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="n">
-        <v>149.9845166077177</v>
+        <v>20.96591323977002</v>
       </c>
     </row>
     <row r="245">
@@ -15380,7 +15380,7 @@
         <v>4.555555555555557</v>
       </c>
       <c r="H245" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I245" t="n">
         <v>102.31</v>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="n">
-        <v>673.4357499027874</v>
+        <v>82.16521422400321</v>
       </c>
     </row>
     <row r="246">
@@ -15441,7 +15441,7 @@
         <v>-2.666666666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>12.8</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="I246" t="n">
         <v>103.83</v>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="n">
-        <v>293.9148282526851</v>
+        <v>54.1261850494014</v>
       </c>
     </row>
     <row r="247">
@@ -15502,7 +15502,7 @@
         <v>0.05555555555555635</v>
       </c>
       <c r="H247" t="n">
-        <v>8.4</v>
+        <v>-13.11111111111111</v>
       </c>
       <c r="I247" t="n">
         <v>103.52</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>179.5355867656536</v>
+        <v>36.43626266338747</v>
       </c>
     </row>
     <row r="248">
@@ -15563,7 +15563,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H248" t="n">
-        <v>7.5</v>
+        <v>-13.61111111111111</v>
       </c>
       <c r="I248" t="n">
         <v>103.06</v>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="n">
-        <v>145.0845949127907</v>
+        <v>30.05818863665892</v>
       </c>
     </row>
     <row r="249">
@@ -15624,7 +15624,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H249" t="n">
-        <v>13.6</v>
+        <v>-10.22222222222222</v>
       </c>
       <c r="I249" t="n">
         <v>101.38</v>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="n">
-        <v>130.6655523020144</v>
+        <v>23.65654757869031</v>
       </c>
     </row>
     <row r="250">
@@ -15685,7 +15685,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H250" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I250" t="n">
         <v>103.29</v>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="n">
-        <v>217.6923577375504</v>
+        <v>41.05204697470792</v>
       </c>
     </row>
     <row r="251">
@@ -15746,7 +15746,7 @@
         <v>8</v>
       </c>
       <c r="H251" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I251" t="n">
         <v>102.03</v>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="n">
-        <v>58.25592614769924</v>
+        <v>14.37493074776152</v>
       </c>
     </row>
     <row r="252">
@@ -15807,7 +15807,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H252" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I252" t="n">
         <v>102.36</v>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="n">
-        <v>168.2141982091325</v>
+        <v>31.24479526428932</v>
       </c>
     </row>
     <row r="253">
@@ -15868,7 +15868,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H253" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I253" t="n">
         <v>102.15</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>170.0744441897849</v>
+        <v>28.52880075222338</v>
       </c>
     </row>
     <row r="254">
@@ -15929,7 +15929,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H254" t="n">
-        <v>14.5</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="I254" t="n">
         <v>101.93</v>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="n">
-        <v>149.870443487909</v>
+        <v>26.62470463064192</v>
       </c>
     </row>
     <row r="255">
@@ -15990,7 +15990,7 @@
         <v>-1.444444444444445</v>
       </c>
       <c r="H255" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I255" t="n">
         <v>103.73</v>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="n">
-        <v>120.3108404392274</v>
+        <v>29.09018260040719</v>
       </c>
     </row>
     <row r="256">
@@ -16051,7 +16051,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H256" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I256" t="n">
         <v>103.13</v>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="n">
-        <v>82.64337037382643</v>
+        <v>20.28888864906342</v>
       </c>
     </row>
     <row r="257">
@@ -16112,7 +16112,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.6</v>
+        <v>-18.11111111111111</v>
       </c>
       <c r="I257" t="n">
         <v>102.25</v>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="n">
-        <v>59.32322914228318</v>
+        <v>14.98090989496068</v>
       </c>
     </row>
     <row r="258">
@@ -16173,7 +16173,7 @@
         <v>14</v>
       </c>
       <c r="H258" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I258" t="n">
         <v>101.62</v>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>79.43379542465418</v>
+        <v>15.37881373234873</v>
       </c>
     </row>
     <row r="259">
@@ -16234,7 +16234,7 @@
         <v>15.88888888888889</v>
       </c>
       <c r="H259" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I259" t="n">
         <v>101.31</v>
@@ -16265,7 +16265,7 @@
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="n">
-        <v>201.1695423855853</v>
+        <v>27.97354191011649</v>
       </c>
     </row>
     <row r="260">
@@ -16295,7 +16295,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H260" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I260" t="n">
         <v>102.66</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="n">
-        <v>365.1565332503523</v>
+        <v>51.95444790006929</v>
       </c>
     </row>
     <row r="261">
@@ -16356,7 +16356,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H261" t="n">
-        <v>18.9</v>
+        <v>-7.277777777777779</v>
       </c>
       <c r="I261" t="n">
         <v>102.99</v>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>266.271994684954</v>
+        <v>43.26733215824201</v>
       </c>
     </row>
     <row r="262">
@@ -16417,7 +16417,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H262" t="n">
-        <v>6.7</v>
+        <v>-14.05555555555556</v>
       </c>
       <c r="I262" t="n">
         <v>103.53</v>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="n">
-        <v>155.4236356186082</v>
+        <v>32.80330005637226</v>
       </c>
     </row>
     <row r="263">
@@ -16478,7 +16478,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="n">
-        <v>2.7</v>
+        <v>-16.27777777777778</v>
       </c>
       <c r="I263" t="n">
         <v>103.15</v>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="n">
-        <v>97.8955363498183</v>
+        <v>22.7433662684228</v>
       </c>
     </row>
     <row r="264">
@@ -16539,7 +16539,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H264" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I264" t="n">
         <v>102.08</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="n">
-        <v>517.4009503402498</v>
+        <v>61.86660673481336</v>
       </c>
     </row>
     <row r="265">
@@ -16600,7 +16600,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H265" t="n">
-        <v>7.1</v>
+        <v>-13.83333333333333</v>
       </c>
       <c r="I265" t="n">
         <v>102.5</v>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>138.4036429596781</v>
+        <v>28.94057327862782</v>
       </c>
     </row>
     <row r="266">
@@ -16661,7 +16661,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H266" t="n">
-        <v>1.6</v>
+        <v>-16.88888888888889</v>
       </c>
       <c r="I266" t="n">
         <v>103.22</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="n">
-        <v>148.2618852701851</v>
+        <v>35.40030232337914</v>
       </c>
     </row>
     <row r="267">
@@ -16722,7 +16722,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H267" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I267" t="n">
         <v>102.52</v>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>129.4875369870948</v>
+        <v>29.21215029922683</v>
       </c>
     </row>
     <row r="268">
@@ -16783,7 +16783,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>7.1</v>
+        <v>-13.83333333333333</v>
       </c>
       <c r="I268" t="n">
         <v>102.78</v>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>164.9754512282311</v>
+        <v>34.49680971790814</v>
       </c>
     </row>
     <row r="269">
@@ -16844,7 +16844,7 @@
         <v>-4.055555555555556</v>
       </c>
       <c r="H269" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I269" t="n">
         <v>102.95</v>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="R269" t="inlineStr"/>
       <c r="S269" t="n">
-        <v>535.2460940050439</v>
+        <v>84.14916398831524</v>
       </c>
     </row>
     <row r="270">
@@ -16905,7 +16905,7 @@
         <v>-8.777777777777779</v>
       </c>
       <c r="H270" t="n">
-        <v>11.6</v>
+        <v>-11.33333333333333</v>
       </c>
       <c r="I270" t="n">
         <v>103.53</v>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="R270" t="inlineStr"/>
       <c r="S270" t="n">
-        <v>432.4480139697638</v>
+        <v>81.72790184709757</v>
       </c>
     </row>
     <row r="271">
@@ -16966,7 +16966,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H271" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I271" t="n">
         <v>102.57</v>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>428.3640874230178</v>
+        <v>75.31110916847487</v>
       </c>
     </row>
     <row r="272">
@@ -17027,7 +17027,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H272" t="n">
-        <v>14.4</v>
+        <v>-9.777777777777779</v>
       </c>
       <c r="I272" t="n">
         <v>102.02</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="R272" t="inlineStr"/>
       <c r="S272" t="n">
-        <v>328.8775368503073</v>
+        <v>58.54790950637033</v>
       </c>
     </row>
     <row r="273">
@@ -17088,7 +17088,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H273" t="n">
-        <v>14.4</v>
+        <v>-9.777777777777779</v>
       </c>
       <c r="I273" t="n">
         <v>102.26</v>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="R273" t="inlineStr"/>
       <c r="S273" t="n">
-        <v>305.4363729001162</v>
+        <v>54.37483292952751</v>
       </c>
     </row>
     <row r="274">
@@ -17149,7 +17149,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H274" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I274" t="n">
         <v>101.83</v>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="R274" t="inlineStr"/>
       <c r="S274" t="n">
-        <v>374.9977174267439</v>
+        <v>56.34474999645251</v>
       </c>
     </row>
     <row r="275">
@@ -17210,7 +17210,7 @@
         <v>-6.944444444444445</v>
       </c>
       <c r="H275" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I275" t="n">
         <v>102.56</v>
@@ -17241,7 +17241,7 @@
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>221.9492040452752</v>
+        <v>50.07133240946982</v>
       </c>
     </row>
     <row r="276">
@@ -17271,7 +17271,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="H276" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="I276" t="n">
         <v>102.78</v>
@@ -17302,7 +17302,7 @@
       </c>
       <c r="R276" t="inlineStr"/>
       <c r="S276" t="n">
-        <v>217.8280474181806</v>
+        <v>51.11004110715118</v>
       </c>
     </row>
     <row r="277">
@@ -17332,7 +17332,7 @@
         <v>-3.833333333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>11.3</v>
+        <v>-11.5</v>
       </c>
       <c r="I277" t="n">
         <v>102.47</v>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="R277" t="inlineStr"/>
       <c r="S277" t="n">
-        <v>290.4495892799939</v>
+        <v>55.25220571804591</v>
       </c>
     </row>
     <row r="278">
@@ -17393,7 +17393,7 @@
         <v>0.6666666666666683</v>
       </c>
       <c r="H278" t="n">
-        <v>14.1</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I278" t="n">
         <v>101.93</v>
@@ -17424,7 +17424,7 @@
       </c>
       <c r="R278" t="inlineStr"/>
       <c r="S278" t="n">
-        <v>250.6631513229766</v>
+        <v>44.90559584483894</v>
       </c>
     </row>
     <row r="279">
@@ -17454,7 +17454,7 @@
         <v>-2.833333333333334</v>
       </c>
       <c r="H279" t="n">
-        <v>14.4</v>
+        <v>-9.777777777777779</v>
       </c>
       <c r="I279" t="n">
         <v>101.63</v>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="R279" t="inlineStr"/>
       <c r="S279" t="n">
-        <v>330.237294013269</v>
+        <v>58.78997815018883</v>
       </c>
     </row>
     <row r="280">
@@ -17515,7 +17515,7 @@
         <v>-0.777777777777777</v>
       </c>
       <c r="H280" t="n">
-        <v>9.1</v>
+        <v>-12.72222222222222</v>
       </c>
       <c r="I280" t="n">
         <v>101.24</v>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>200.0084337686404</v>
+        <v>39.95234468300429</v>
       </c>
     </row>
     <row r="281">
@@ -17576,7 +17576,7 @@
         <v>-13.94444444444445</v>
       </c>
       <c r="H281" t="n">
-        <v>-4.1</v>
+        <v>-20.05555555555556</v>
       </c>
       <c r="I281" t="n">
         <v>102.79</v>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="R281" t="inlineStr"/>
       <c r="S281" t="n">
-        <v>216.139144364808</v>
+        <v>59.89223743739447</v>
       </c>
     </row>
     <row r="282">
@@ -17637,7 +17637,7 @@
         <v>-3.111111111111112</v>
       </c>
       <c r="H282" t="n">
-        <v>-1.7</v>
+        <v>-18.72222222222222</v>
       </c>
       <c r="I282" t="n">
         <v>101</v>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="R282" t="inlineStr"/>
       <c r="S282" t="n">
-        <v>111.0104585353342</v>
+        <v>28.84922318314243</v>
       </c>
     </row>
     <row r="283">
@@ -17698,7 +17698,7 @@
         <v>-17.38888888888889</v>
       </c>
       <c r="H283" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I283" t="n">
         <v>103.63</v>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>234.261281631314</v>
+        <v>69.96057176955615</v>
       </c>
     </row>
     <row r="284">
@@ -17759,7 +17759,7 @@
         <v>-21.05555555555556</v>
       </c>
       <c r="H284" t="n">
-        <v>-20.1</v>
+        <v>-28.94444444444445</v>
       </c>
       <c r="I284" t="n">
         <v>104.8</v>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>108.6253386081462</v>
+        <v>49.10559627460742</v>
       </c>
     </row>
     <row r="285">
@@ -17820,7 +17820,7 @@
         <v>-18</v>
       </c>
       <c r="H285" t="n">
-        <v>-15.3</v>
+        <v>-26.27777777777778</v>
       </c>
       <c r="I285" t="n">
         <v>104.46</v>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="n">
-        <v>125.3268391265434</v>
+        <v>48.33050466616562</v>
       </c>
     </row>
     <row r="286">
@@ -17881,7 +17881,7 @@
         <v>-20.61111111111111</v>
       </c>
       <c r="H286" t="n">
-        <v>-16.9</v>
+        <v>-27.16666666666667</v>
       </c>
       <c r="I286" t="n">
         <v>103.87</v>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="n">
-        <v>137.1833979872677</v>
+        <v>55.71229039679078</v>
       </c>
     </row>
     <row r="287">
@@ -17942,7 +17942,7 @@
         <v>-17.77777777777778</v>
       </c>
       <c r="H287" t="n">
-        <v>-13.4</v>
+        <v>-25.22222222222222</v>
       </c>
       <c r="I287" t="n">
         <v>103.19</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>143.7145507209859</v>
+        <v>52.19906045005107</v>
       </c>
     </row>
     <row r="288">
@@ -18003,7 +18003,7 @@
         <v>-18.77777777777778</v>
       </c>
       <c r="H288" t="n">
-        <v>-15.9</v>
+        <v>-26.61111111111111</v>
       </c>
       <c r="I288" t="n">
         <v>104.18</v>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="n">
-        <v>127.390716407568</v>
+        <v>50.08189951872419</v>
       </c>
     </row>
     <row r="289">
@@ -18064,7 +18064,7 @@
         <v>-18.66666666666667</v>
       </c>
       <c r="H289" t="n">
-        <v>-14.4</v>
+        <v>-25.77777777777778</v>
       </c>
       <c r="I289" t="n">
         <v>104.21</v>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="n">
-        <v>142.8179580004513</v>
+        <v>53.52387007481349</v>
       </c>
     </row>
     <row r="290">
@@ -18125,7 +18125,7 @@
         <v>-15.22222222222222</v>
       </c>
       <c r="H290" t="n">
-        <v>-12.1</v>
+        <v>-24.5</v>
       </c>
       <c r="I290" t="n">
         <v>103.68</v>
@@ -18156,7 +18156,7 @@
       </c>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>128.957822790324</v>
+        <v>45.00061029677283</v>
       </c>
     </row>
     <row r="291">
@@ -18186,7 +18186,7 @@
         <v>-14.22222222222222</v>
       </c>
       <c r="H291" t="n">
-        <v>-10.8</v>
+        <v>-23.77777777777778</v>
       </c>
       <c r="I291" t="n">
         <v>103.2</v>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="n">
-        <v>131.7828009860771</v>
+        <v>44.21426112830433</v>
       </c>
     </row>
     <row r="292">
@@ -18247,7 +18247,7 @@
         <v>-12.44444444444444</v>
       </c>
       <c r="H292" t="n">
-        <v>-7.9</v>
+        <v>-22.16666666666667</v>
       </c>
       <c r="I292" t="n">
         <v>103.38</v>
@@ -18278,7 +18278,7 @@
       </c>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="n">
-        <v>143.2169332028247</v>
+        <v>44.13262706202797</v>
       </c>
     </row>
     <row r="293">
@@ -18308,7 +18308,7 @@
         <v>-18.11111111111111</v>
       </c>
       <c r="H293" t="n">
-        <v>-8.300000000000001</v>
+        <v>-22.38888888888889</v>
       </c>
       <c r="I293" t="n">
         <v>103.74</v>
@@ -18339,7 +18339,7 @@
       </c>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="n">
-        <v>221.7350806744525</v>
+        <v>69.11995821716222</v>
       </c>
     </row>
     <row r="294">
@@ -18369,7 +18369,7 @@
         <v>-15.94444444444444</v>
       </c>
       <c r="H294" t="n">
-        <v>-7.2</v>
+        <v>-21.77777777777778</v>
       </c>
       <c r="I294" t="n">
         <v>104.06</v>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="n">
-        <v>201.3163915089412</v>
+        <v>60.80749624323838</v>
       </c>
     </row>
     <row r="295">
@@ -18430,7 +18430,7 @@
         <v>-12.22222222222222</v>
       </c>
       <c r="H295" t="n">
-        <v>3.2</v>
+        <v>-16</v>
       </c>
       <c r="I295" t="n">
         <v>102.64</v>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="n">
-        <v>319.9514889476944</v>
+        <v>73.42339760431709</v>
       </c>
     </row>
     <row r="296">
@@ -18491,7 +18491,7 @@
         <v>-17.61111111111111</v>
       </c>
       <c r="H296" t="n">
-        <v>-12.1</v>
+        <v>-24.5</v>
       </c>
       <c r="I296" t="n">
         <v>103.09</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>157.4039656602351</v>
+        <v>54.92706347376644</v>
       </c>
     </row>
     <row r="297">
@@ -18552,7 +18552,7 @@
         <v>-19.33333333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>-18.6</v>
+        <v>-28.11111111111111</v>
       </c>
       <c r="I297" t="n">
         <v>103.75</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="n">
-        <v>106.4585895233144</v>
+        <v>45.73920728113154</v>
       </c>
     </row>
     <row r="298">
@@ -18613,7 +18613,7 @@
         <v>-17.77777777777778</v>
       </c>
       <c r="H298" t="n">
-        <v>-12.2</v>
+        <v>-24.55555555555556</v>
       </c>
       <c r="I298" t="n">
         <v>103.12</v>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="n">
-        <v>158.3552352551211</v>
+        <v>55.4280154865589</v>
       </c>
     </row>
     <row r="299">
@@ -18674,7 +18674,7 @@
         <v>-21.66666666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>-18.2</v>
+        <v>-27.88888888888889</v>
       </c>
       <c r="I299" t="n">
         <v>104.43</v>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>134.7757051110551</v>
+        <v>57.13599934130771</v>
       </c>
     </row>
     <row r="300">
@@ -18735,7 +18735,7 @@
         <v>-21.61111111111111</v>
       </c>
       <c r="H300" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I300" t="n">
         <v>104.67</v>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="n">
-        <v>142.2956530828812</v>
+        <v>58.93919926875935</v>
       </c>
     </row>
     <row r="301">
@@ -18796,7 +18796,7 @@
         <v>-18</v>
       </c>
       <c r="H301" t="n">
-        <v>-11.7</v>
+        <v>-24.27777777777778</v>
       </c>
       <c r="I301" t="n">
         <v>103.94</v>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="n">
-        <v>167.9641513841721</v>
+        <v>57.90308345449105</v>
       </c>
     </row>
     <row r="302">
@@ -18857,7 +18857,7 @@
         <v>-16.83333333333334</v>
       </c>
       <c r="H302" t="n">
-        <v>-7.7</v>
+        <v>-22.05555555555556</v>
       </c>
       <c r="I302" t="n">
         <v>102.91</v>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="n">
-        <v>208.5997534861669</v>
+        <v>63.91284534639096</v>
       </c>
     </row>
     <row r="303">
@@ -18918,7 +18918,7 @@
         <v>-16.27777777777778</v>
       </c>
       <c r="H303" t="n">
-        <v>-7.9</v>
+        <v>-22.16666666666667</v>
       </c>
       <c r="I303" t="n">
         <v>102.64</v>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>196.0787083347849</v>
+        <v>60.42210453905001</v>
       </c>
     </row>
     <row r="304">
@@ -18979,7 +18979,7 @@
         <v>-18.33333333333334</v>
       </c>
       <c r="H304" t="n">
-        <v>-8.199999999999999</v>
+        <v>-22.33333333333334</v>
       </c>
       <c r="I304" t="n">
         <v>102.99</v>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="n">
-        <v>227.7157511589878</v>
+        <v>70.77966743759794</v>
       </c>
     </row>
     <row r="305">
@@ -19040,7 +19040,7 @@
         <v>-20.16666666666666</v>
       </c>
       <c r="H305" t="n">
-        <v>-12</v>
+        <v>-24.44444444444445</v>
       </c>
       <c r="I305" t="n">
         <v>104.22</v>
@@ -19071,7 +19071,7 @@
       </c>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="n">
-        <v>197.3157599643757</v>
+        <v>68.64488970458318</v>
       </c>
     </row>
     <row r="306">
@@ -19101,7 +19101,7 @@
         <v>-14.88888888888889</v>
       </c>
       <c r="H306" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I306" t="n">
         <v>103.48</v>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="n">
-        <v>190.2510753353785</v>
+        <v>56.81721673146011</v>
       </c>
     </row>
     <row r="307">
@@ -19162,7 +19162,7 @@
         <v>-17.27777777777778</v>
       </c>
       <c r="H307" t="n">
-        <v>-10.7</v>
+        <v>-23.72222222222222</v>
       </c>
       <c r="I307" t="n">
         <v>104.01</v>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="n">
-        <v>171.1548519226237</v>
+        <v>57.25233916367355</v>
       </c>
     </row>
     <row r="308">
@@ -19223,7 +19223,7 @@
         <v>-19</v>
       </c>
       <c r="H308" t="n">
-        <v>-13.4</v>
+        <v>-25.22222222222222</v>
       </c>
       <c r="I308" t="n">
         <v>104.25</v>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>159.4299421983958</v>
+        <v>57.90710229835465</v>
       </c>
     </row>
     <row r="309">
@@ -19284,7 +19284,7 @@
         <v>-17.38888888888889</v>
       </c>
       <c r="H309" t="n">
-        <v>-10.6</v>
+        <v>-23.66666666666667</v>
       </c>
       <c r="I309" t="n">
         <v>104.05</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="n">
-        <v>174.1384356369156</v>
+        <v>58.07656438053294</v>
       </c>
     </row>
     <row r="310">
@@ -19345,7 +19345,7 @@
         <v>-18.33333333333334</v>
       </c>
       <c r="H310" t="n">
-        <v>-9.4</v>
+        <v>-23</v>
       </c>
       <c r="I310" t="n">
         <v>104.77</v>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="n">
-        <v>207.341035236907</v>
+        <v>66.73656472040305</v>
       </c>
     </row>
     <row r="311">
@@ -19406,7 +19406,7 @@
         <v>-16.38888888888889</v>
       </c>
       <c r="H311" t="n">
-        <v>-7.9</v>
+        <v>-22.16666666666667</v>
       </c>
       <c r="I311" t="n">
         <v>103.73</v>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>197.9036437005541</v>
+        <v>60.98446256549745</v>
       </c>
     </row>
     <row r="312">
@@ -19467,7 +19467,7 @@
         <v>-14.61111111111111</v>
       </c>
       <c r="H312" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I312" t="n">
         <v>103.35</v>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="n">
-        <v>274.8592192518301</v>
+        <v>71.24264065062056</v>
       </c>
     </row>
     <row r="313">
@@ -19528,7 +19528,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H313" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I313" t="n">
         <v>102.55</v>
@@ -19559,7 +19559,7 @@
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>145.5208010222148</v>
+        <v>39.88881055261186</v>
       </c>
     </row>
     <row r="314">
@@ -19589,7 +19589,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H314" t="n">
-        <v>3.1</v>
+        <v>-16.05555555555556</v>
       </c>
       <c r="I314" t="n">
         <v>102.31</v>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>232.5556520791161</v>
+        <v>53.49861209554329</v>
       </c>
     </row>
     <row r="315">
@@ -19650,7 +19650,7 @@
         <v>-8.944444444444446</v>
       </c>
       <c r="H315" t="n">
-        <v>4.9</v>
+        <v>-15.05555555555556</v>
       </c>
       <c r="I315" t="n">
         <v>103.3</v>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>277.9811907295485</v>
+        <v>61.21884974021921</v>
       </c>
     </row>
     <row r="316">
@@ -19711,7 +19711,7 @@
         <v>-9.833333333333334</v>
       </c>
       <c r="H316" t="n">
-        <v>5.2</v>
+        <v>-14.88888888888889</v>
       </c>
       <c r="I316" t="n">
         <v>103.31</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="n">
-        <v>304.3655239250489</v>
+        <v>66.55094927951875</v>
       </c>
     </row>
     <row r="317">
@@ -19772,7 +19772,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H317" t="n">
-        <v>7.8</v>
+        <v>-13.44444444444444</v>
       </c>
       <c r="I317" t="n">
         <v>102.4</v>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="n">
-        <v>259.2372301211846</v>
+        <v>53.33842070474009</v>
       </c>
     </row>
     <row r="318">
@@ -19833,7 +19833,7 @@
         <v>-13.22222222222222</v>
       </c>
       <c r="H318" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I318" t="n">
         <v>103.01</v>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>210.001932851623</v>
+        <v>57.56377958586102</v>
       </c>
     </row>
     <row r="319">
@@ -19894,7 +19894,7 @@
         <v>-11.94444444444444</v>
       </c>
       <c r="H319" t="n">
-        <v>-4.6</v>
+        <v>-20.33333333333334</v>
       </c>
       <c r="I319" t="n">
         <v>102.15</v>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="n">
-        <v>177.0471541253856</v>
+        <v>49.73395274007558</v>
       </c>
     </row>
     <row r="320">
@@ -19955,7 +19955,7 @@
         <v>-19.16666666666667</v>
       </c>
       <c r="H320" t="n">
-        <v>-17.9</v>
+        <v>-27.72222222222222</v>
       </c>
       <c r="I320" t="n">
         <v>103.44</v>
@@ -19986,7 +19986,7 @@
       </c>
       <c r="R320" t="inlineStr"/>
       <c r="S320" t="n">
-        <v>111.3699565232726</v>
+        <v>46.74457594811261</v>
       </c>
     </row>
     <row r="321">
@@ -20016,7 +20016,7 @@
         <v>-13.88888888888889</v>
       </c>
       <c r="H321" t="n">
-        <v>-6.1</v>
+        <v>-21.16666666666667</v>
       </c>
       <c r="I321" t="n">
         <v>102.67</v>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="R321" t="inlineStr"/>
       <c r="S321" t="n">
-        <v>184.9295998746756</v>
+        <v>54.15119251536657</v>
       </c>
     </row>
     <row r="322">
@@ -20077,7 +20077,7 @@
         <v>-16</v>
       </c>
       <c r="H322" t="n">
-        <v>-6.9</v>
+        <v>-21.61111111111111</v>
       </c>
       <c r="I322" t="n">
         <v>102.77</v>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>206.9718298978119</v>
+        <v>61.98587132604852</v>
       </c>
     </row>
     <row r="323">
@@ -20138,7 +20138,7 @@
         <v>-19.77777777777778</v>
       </c>
       <c r="H323" t="n">
-        <v>-11.2</v>
+        <v>-24</v>
       </c>
       <c r="I323" t="n">
         <v>103.63</v>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="R323" t="inlineStr"/>
       <c r="S323" t="n">
-        <v>203.4302634838263</v>
+        <v>69.07747986232324</v>
       </c>
     </row>
     <row r="324">
@@ -20199,7 +20199,7 @@
         <v>-25.94444444444445</v>
       </c>
       <c r="H324" t="n">
-        <v>-24.6</v>
+        <v>-31.44444444444445</v>
       </c>
       <c r="I324" t="n">
         <v>105.38</v>
@@ -20230,7 +20230,7 @@
       </c>
       <c r="R324" t="inlineStr"/>
       <c r="S324" t="n">
-        <v>112.9153407895563</v>
+        <v>59.87243670151998</v>
       </c>
     </row>
     <row r="325">
@@ -20260,7 +20260,7 @@
         <v>-23.5</v>
       </c>
       <c r="H325" t="n">
-        <v>-19.4</v>
+        <v>-28.55555555555556</v>
       </c>
       <c r="I325" t="n">
         <v>103.87</v>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="R325" t="inlineStr"/>
       <c r="S325" t="n">
-        <v>143.0196639200615</v>
+        <v>63.12852066969408</v>
       </c>
     </row>
     <row r="326">
@@ -20321,7 +20321,7 @@
         <v>-19.05555555555555</v>
       </c>
       <c r="H326" t="n">
-        <v>-11.1</v>
+        <v>-23.94444444444445</v>
       </c>
       <c r="I326" t="n">
         <v>102.94</v>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="R326" t="inlineStr"/>
       <c r="S326" t="n">
-        <v>192.75263563481</v>
+        <v>65.25504579113294</v>
       </c>
     </row>
     <row r="327">
@@ -20382,7 +20382,7 @@
         <v>-19.94444444444444</v>
       </c>
       <c r="H327" t="n">
-        <v>-11.5</v>
+        <v>-24.16666666666667</v>
       </c>
       <c r="I327" t="n">
         <v>104.19</v>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="R327" t="inlineStr"/>
       <c r="S327" t="n">
-        <v>201.4841103716209</v>
+        <v>69.03900604339282</v>
       </c>
     </row>
     <row r="328">
@@ -20443,7 +20443,7 @@
         <v>-16.61111111111111</v>
       </c>
       <c r="H328" t="n">
-        <v>-8.9</v>
+        <v>-22.72222222222222</v>
       </c>
       <c r="I328" t="n">
         <v>103.75</v>
@@ -20474,7 +20474,7 @@
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>186.5110415666266</v>
+        <v>59.16069888843034</v>
       </c>
     </row>
     <row r="329">
@@ -20504,7 +20504,7 @@
         <v>-10.66666666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>-1.7</v>
+        <v>-18.72222222222222</v>
       </c>
       <c r="I329" t="n">
         <v>102.63</v>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="R329" t="inlineStr"/>
       <c r="S329" t="n">
-        <v>198.4318073338467</v>
+        <v>51.56814566788178</v>
       </c>
     </row>
     <row r="330">
@@ -20565,7 +20565,7 @@
         <v>-8.722222222222221</v>
       </c>
       <c r="H330" t="n">
-        <v>1.8</v>
+        <v>-16.77777777777778</v>
       </c>
       <c r="I330" t="n">
         <v>102.6</v>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="R330" t="inlineStr"/>
       <c r="S330" t="n">
-        <v>219.486223612268</v>
+        <v>52.14466369970594</v>
       </c>
     </row>
     <row r="331">
@@ -20626,7 +20626,7 @@
         <v>-13.72222222222222</v>
       </c>
       <c r="H331" t="n">
-        <v>-6.2</v>
+        <v>-21.22222222222222</v>
       </c>
       <c r="I331" t="n">
         <v>103.36</v>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="R331" t="inlineStr"/>
       <c r="S331" t="n">
-        <v>181.0449982667044</v>
+        <v>53.16238774797593</v>
       </c>
     </row>
     <row r="332">
@@ -20687,7 +20687,7 @@
         <v>-15.16666666666667</v>
       </c>
       <c r="H332" t="n">
-        <v>-13.5</v>
+        <v>-25.27777777777778</v>
       </c>
       <c r="I332" t="n">
         <v>104.12</v>
@@ -20718,7 +20718,7 @@
       </c>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>114.6310536694896</v>
+        <v>41.76530312689795</v>
       </c>
     </row>
     <row r="333">
@@ -20748,7 +20748,7 @@
         <v>-14.44444444444444</v>
       </c>
       <c r="H333" t="n">
-        <v>-13.6</v>
+        <v>-25.33333333333334</v>
       </c>
       <c r="I333" t="n">
         <v>103.21</v>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>107.1432414221622</v>
+        <v>39.15899208837349</v>
       </c>
     </row>
     <row r="334">
@@ -20809,7 +20809,7 @@
         <v>-8.555555555555555</v>
       </c>
       <c r="H334" t="n">
-        <v>-5.2</v>
+        <v>-20.66666666666667</v>
       </c>
       <c r="I334" t="n">
         <v>103.15</v>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>129.4178177698862</v>
+        <v>36.95954651530631</v>
       </c>
     </row>
     <row r="335">
@@ -20870,7 +20870,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H335" t="n">
-        <v>-4.6</v>
+        <v>-20.33333333333334</v>
       </c>
       <c r="I335" t="n">
         <v>102.42</v>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="R335" t="inlineStr"/>
       <c r="S335" t="n">
-        <v>138.9914546128404</v>
+        <v>39.04380428557376</v>
       </c>
     </row>
     <row r="336">
@@ -20931,7 +20931,7 @@
         <v>-7.555555555555556</v>
       </c>
       <c r="H336" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I336" t="n">
         <v>102.59</v>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>133.0712162713835</v>
+        <v>36.5750884792547</v>
       </c>
     </row>
     <row r="337">
@@ -20992,7 +20992,7 @@
         <v>-3.888888888888889</v>
       </c>
       <c r="H337" t="n">
-        <v>3.7</v>
+        <v>-15.72222222222222</v>
       </c>
       <c r="I337" t="n">
         <v>102.48</v>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="R337" t="inlineStr"/>
       <c r="S337" t="n">
-        <v>173.5442278211288</v>
+        <v>39.34202757237671</v>
       </c>
     </row>
     <row r="338">
@@ -21053,7 +21053,7 @@
         <v>-11.5</v>
       </c>
       <c r="H338" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I338" t="n">
         <v>103.54</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="n">
-        <v>199.8875686024939</v>
+        <v>53.05655461878792</v>
       </c>
     </row>
     <row r="339">
@@ -21114,7 +21114,7 @@
         <v>-9.833333333333334</v>
       </c>
       <c r="H339" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I339" t="n">
         <v>103.37</v>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="n">
-        <v>214.9736398565256</v>
+        <v>53.04578246163247</v>
       </c>
     </row>
     <row r="340">
@@ -21175,7 +21175,7 @@
         <v>-6.333333333333333</v>
       </c>
       <c r="H340" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I340" t="n">
         <v>102.17</v>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="R340" t="inlineStr"/>
       <c r="S340" t="n">
-        <v>330.5683563417517</v>
+        <v>64.14158618321783</v>
       </c>
     </row>
     <row r="341">
@@ -21236,7 +21236,7 @@
         <v>-3.111111111111112</v>
       </c>
       <c r="H341" t="n">
-        <v>14.8</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="I341" t="n">
         <v>101.49</v>
@@ -21267,7 +21267,7 @@
       </c>
       <c r="R341" t="inlineStr"/>
       <c r="S341" t="n">
-        <v>345.9540026615102</v>
+        <v>61.07587127523492</v>
       </c>
     </row>
     <row r="342">
@@ -21297,7 +21297,7 @@
         <v>-11.66666666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>-5.8</v>
+        <v>-21</v>
       </c>
       <c r="I342" t="n">
         <v>104.22</v>
@@ -21328,7 +21328,7 @@
       </c>
       <c r="R342" t="inlineStr"/>
       <c r="S342" t="n">
-        <v>158.1003023460185</v>
+        <v>45.90877338078811</v>
       </c>
     </row>
     <row r="343">
@@ -21358,7 +21358,7 @@
         <v>-8.555555555555555</v>
       </c>
       <c r="H343" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I343" t="n">
         <v>103.52</v>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="n">
-        <v>158.4324806319031</v>
+        <v>42.0530482250898</v>
       </c>
     </row>
     <row r="344">
@@ -21419,7 +21419,7 @@
         <v>-7.055555555555555</v>
       </c>
       <c r="H344" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I344" t="n">
         <v>102.91</v>
@@ -21450,7 +21450,7 @@
       </c>
       <c r="R344" t="inlineStr"/>
       <c r="S344" t="n">
-        <v>187.4401566494251</v>
+        <v>44.98017360551606</v>
       </c>
     </row>
     <row r="345">
@@ -21480,7 +21480,7 @@
         <v>-8.666666666666668</v>
       </c>
       <c r="H345" t="n">
-        <v>-10</v>
+        <v>-23.33333333333334</v>
       </c>
       <c r="I345" t="n">
         <v>102.63</v>
@@ -21511,7 +21511,7 @@
       </c>
       <c r="R345" t="inlineStr"/>
       <c r="S345" t="n">
-        <v>90.06639101886769</v>
+        <v>29.50677920083664</v>
       </c>
     </row>
     <row r="346">
@@ -21541,7 +21541,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H346" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I346" t="n">
         <v>103.05</v>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="R346" t="inlineStr"/>
       <c r="S346" t="n">
-        <v>117.7234800860007</v>
+        <v>34.86105990848525</v>
       </c>
     </row>
     <row r="347">
@@ -21602,7 +21602,7 @@
         <v>-10.88888888888889</v>
       </c>
       <c r="H347" t="n">
-        <v>-13.1</v>
+        <v>-25.05555555555556</v>
       </c>
       <c r="I347" t="n">
         <v>104.01</v>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="R347" t="inlineStr"/>
       <c r="S347" t="n">
-        <v>83.73490911208995</v>
+        <v>30.13186475355628</v>
       </c>
     </row>
     <row r="348">
@@ -21663,7 +21663,7 @@
         <v>-7.833333333333335</v>
       </c>
       <c r="H348" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I348" t="n">
         <v>102.77</v>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="R348" t="inlineStr"/>
       <c r="S348" t="n">
-        <v>134.9476775166398</v>
+        <v>37.19149233811097</v>
       </c>
     </row>
     <row r="349">
@@ -21724,7 +21724,7 @@
         <v>-8.5</v>
       </c>
       <c r="H349" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I349" t="n">
         <v>103.52</v>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="R349" t="inlineStr"/>
       <c r="S349" t="n">
-        <v>168.5821391866316</v>
+        <v>43.69595749736208</v>
       </c>
     </row>
     <row r="350">
@@ -21785,7 +21785,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H350" t="n">
-        <v>15.2</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="I350" t="n">
         <v>102.51</v>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="R350" t="inlineStr"/>
       <c r="S350" t="n">
-        <v>287.0100619123533</v>
+        <v>50.25078455566465</v>
       </c>
     </row>
     <row r="351">
@@ -21846,7 +21846,7 @@
         <v>-5</v>
       </c>
       <c r="H351" t="n">
-        <v>-2.5</v>
+        <v>-19.16666666666667</v>
       </c>
       <c r="I351" t="n">
         <v>103.49</v>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="n">
-        <v>120.5797889022784</v>
+        <v>32.0057330255396</v>
       </c>
     </row>
     <row r="352">
@@ -21907,7 +21907,7 @@
         <v>-4.611111111111112</v>
       </c>
       <c r="H352" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I352" t="n">
         <v>103.28</v>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="R352" t="inlineStr"/>
       <c r="S352" t="n">
-        <v>81.46170638692803</v>
+        <v>24.67557054844137</v>
       </c>
     </row>
     <row r="353">
@@ -21968,7 +21968,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H353" t="n">
-        <v>-8.4</v>
+        <v>-22.44444444444445</v>
       </c>
       <c r="I353" t="n">
         <v>102.34</v>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="R353" t="inlineStr"/>
       <c r="S353" t="n">
-        <v>48.88999808492188</v>
+        <v>15.28426282803715</v>
       </c>
     </row>
     <row r="354">
@@ -22029,7 +22029,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H354" t="n">
-        <v>-5.8</v>
+        <v>-21</v>
       </c>
       <c r="I354" t="n">
         <v>102.57</v>
@@ -22060,7 +22060,7 @@
       </c>
       <c r="R354" t="inlineStr"/>
       <c r="S354" t="n">
-        <v>62.16411752454663</v>
+        <v>18.05106215170347</v>
       </c>
     </row>
     <row r="355">
@@ -22090,7 +22090,7 @@
         <v>-2.722222222222221</v>
       </c>
       <c r="H355" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I355" t="n">
         <v>102.25</v>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="R355" t="inlineStr"/>
       <c r="S355" t="n">
-        <v>64.44542326555563</v>
+        <v>20.20569456454889</v>
       </c>
     </row>
     <row r="356">
@@ -22151,7 +22151,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H356" t="n">
-        <v>-4.4</v>
+        <v>-20.22222222222222</v>
       </c>
       <c r="I356" t="n">
         <v>101.83</v>
@@ -22182,7 +22182,7 @@
       </c>
       <c r="R356" t="inlineStr"/>
       <c r="S356" t="n">
-        <v>67.47319084029668</v>
+        <v>18.85034998629724</v>
       </c>
     </row>
     <row r="357">
@@ -22212,7 +22212,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H357" t="n">
-        <v>0.9</v>
+        <v>-17.27777777777778</v>
       </c>
       <c r="I357" t="n">
         <v>101.27</v>
@@ -22243,7 +22243,7 @@
       </c>
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="n">
-        <v>77.44861963850784</v>
+        <v>18.82140143529531</v>
       </c>
     </row>
     <row r="358">
@@ -22273,7 +22273,7 @@
         <v>4.888888888888888</v>
       </c>
       <c r="H358" t="n">
-        <v>9.199999999999999</v>
+        <v>-12.66666666666667</v>
       </c>
       <c r="I358" t="n">
         <v>101.62</v>
@@ -22304,7 +22304,7 @@
       </c>
       <c r="R358" t="inlineStr"/>
       <c r="S358" t="n">
-        <v>134.3825374240697</v>
+        <v>26.78293391793568</v>
       </c>
     </row>
     <row r="359">
@@ -22334,7 +22334,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H359" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I359" t="n">
         <v>100.61</v>
@@ -22365,7 +22365,7 @@
       </c>
       <c r="R359" t="inlineStr"/>
       <c r="S359" t="n">
-        <v>82.70245948827274</v>
+        <v>16.04711047220442</v>
       </c>
     </row>
     <row r="360">
@@ -22395,7 +22395,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H360" t="n">
-        <v>-8.4</v>
+        <v>-22.44444444444445</v>
       </c>
       <c r="I360" t="n">
         <v>102.73</v>
@@ -22426,7 +22426,7 @@
       </c>
       <c r="R360" t="inlineStr"/>
       <c r="S360" t="n">
-        <v>52.127668497005</v>
+        <v>16.29644134035538</v>
       </c>
     </row>
     <row r="361">
@@ -22456,7 +22456,7 @@
         <v>-6.055555555555555</v>
       </c>
       <c r="H361" t="n">
-        <v>-12</v>
+        <v>-24.44444444444445</v>
       </c>
       <c r="I361" t="n">
         <v>103.95</v>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="R361" t="inlineStr"/>
       <c r="S361" t="n">
-        <v>62.79462037934165</v>
+        <v>21.84584642787439</v>
       </c>
     </row>
     <row r="362">
@@ -22517,7 +22517,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H362" t="n">
-        <v>-10.7</v>
+        <v>-23.72222222222222</v>
       </c>
       <c r="I362" t="n">
         <v>102.46</v>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="n">
-        <v>36.22600597825097</v>
+        <v>12.11781937534393</v>
       </c>
     </row>
     <row r="363">
@@ -22578,7 +22578,7 @@
         <v>-6.444444444444446</v>
       </c>
       <c r="H363" t="n">
-        <v>-10.1</v>
+        <v>-23.38888888888889</v>
       </c>
       <c r="I363" t="n">
         <v>103.29</v>
@@ -22609,7 +22609,7 @@
       </c>
       <c r="R363" t="inlineStr"/>
       <c r="S363" t="n">
-        <v>75.25600338113595</v>
+        <v>24.72787221883059</v>
       </c>
     </row>
     <row r="364">
@@ -22639,7 +22639,7 @@
         <v>-4.333333333333334</v>
       </c>
       <c r="H364" t="n">
-        <v>-2.3</v>
+        <v>-19.05555555555555</v>
       </c>
       <c r="I364" t="n">
         <v>103.24</v>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="n">
-        <v>116.3762493644568</v>
+        <v>30.72642400128186</v>
       </c>
     </row>
     <row r="365">
@@ -22700,7 +22700,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="H365" t="n">
-        <v>-9.800000000000001</v>
+        <v>-23.22222222222222</v>
       </c>
       <c r="I365" t="n">
         <v>103.08</v>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="R365" t="inlineStr"/>
       <c r="S365" t="n">
-        <v>73.23397147237139</v>
+        <v>23.85086264361921</v>
       </c>
     </row>
     <row r="366">
@@ -22761,7 +22761,7 @@
         <v>-3.666666666666667</v>
       </c>
       <c r="H366" t="n">
-        <v>-13.9</v>
+        <v>-25.5</v>
       </c>
       <c r="I366" t="n">
         <v>102.46</v>
@@ -22792,7 +22792,7 @@
       </c>
       <c r="R366" t="inlineStr"/>
       <c r="S366" t="n">
-        <v>44.95100367226534</v>
+        <v>16.58357007875104</v>
       </c>
     </row>
     <row r="367">
@@ -22822,7 +22822,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H367" t="n">
-        <v>-15.8</v>
+        <v>-26.55555555555555</v>
       </c>
       <c r="I367" t="n">
         <v>101.32</v>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="R367" t="inlineStr"/>
       <c r="S367" t="n">
-        <v>26.2296863746394</v>
+        <v>10.27866558755956</v>
       </c>
     </row>
     <row r="368">
@@ -22883,7 +22883,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H368" t="n">
-        <v>-4.4</v>
+        <v>-20.22222222222222</v>
       </c>
       <c r="I368" t="n">
         <v>100.47</v>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>43.25889335294398</v>
+        <v>12.08547083022932</v>
       </c>
     </row>
     <row r="369">
@@ -22944,7 +22944,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H369" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I369" t="n">
         <v>100.77</v>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>141.5639608519064</v>
+        <v>30.30103435190237</v>
       </c>
     </row>
     <row r="370">
@@ -23005,7 +23005,7 @@
         <v>-6.944444444444445</v>
       </c>
       <c r="H370" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I370" t="n">
         <v>102.62</v>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>42.76189593012499</v>
+        <v>17.71207939758769</v>
       </c>
     </row>
     <row r="371">
@@ -23066,7 +23066,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H371" t="n">
-        <v>-15.6</v>
+        <v>-26.44444444444445</v>
       </c>
       <c r="I371" t="n">
         <v>103.06</v>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>39.41320340939887</v>
+        <v>15.34591296288828</v>
       </c>
     </row>
     <row r="372">
@@ -23127,7 +23127,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H372" t="n">
-        <v>-7.9</v>
+        <v>-22.16666666666667</v>
       </c>
       <c r="I372" t="n">
         <v>102.21</v>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>56.19404876179512</v>
+        <v>17.31632525322645</v>
       </c>
     </row>
     <row r="373">
@@ -23188,7 +23188,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H373" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I373" t="n">
         <v>101.97</v>
@@ -23219,7 +23219,7 @@
       </c>
       <c r="R373" t="inlineStr"/>
       <c r="S373" t="n">
-        <v>77.9294121723544</v>
+        <v>19.1316152632687</v>
       </c>
     </row>
     <row r="374">
@@ -23249,7 +23249,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H374" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I374" t="n">
         <v>101.2</v>
@@ -23280,7 +23280,7 @@
       </c>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>55.26289476974549</v>
+        <v>13.63638581973343</v>
       </c>
     </row>
     <row r="375">
@@ -23310,7 +23310,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H375" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I375" t="n">
         <v>100.59</v>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>146.0206205811903</v>
+        <v>22.82524039780771</v>
       </c>
     </row>
     <row r="376">
@@ -23371,7 +23371,7 @@
         <v>-1.722222222222223</v>
       </c>
       <c r="H376" t="n">
-        <v>2.2</v>
+        <v>-16.55555555555556</v>
       </c>
       <c r="I376" t="n">
         <v>102.37</v>
@@ -23402,7 +23402,7 @@
       </c>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>132.8544001156098</v>
+        <v>31.2498069497863</v>
       </c>
     </row>
     <row r="377">
@@ -23432,7 +23432,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H377" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I377" t="n">
         <v>102.47</v>
@@ -23463,7 +23463,7 @@
       </c>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>68.05835128177922</v>
+        <v>18.65552320858633</v>
       </c>
     </row>
     <row r="378">
@@ -23493,7 +23493,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H378" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I378" t="n">
         <v>100.89</v>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>53.68576423854844</v>
+        <v>15.67639240687512</v>
       </c>
     </row>
     <row r="379">
@@ -23554,7 +23554,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H379" t="n">
-        <v>13.9</v>
+        <v>-10.05555555555556</v>
       </c>
       <c r="I379" t="n">
         <v>101.26</v>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>171.7388894527369</v>
+        <v>30.89632872889501</v>
       </c>
     </row>
     <row r="380">
@@ -23615,7 +23615,7 @@
         <v>3.944444444444446</v>
       </c>
       <c r="H380" t="n">
-        <v>4.1</v>
+        <v>-15.5</v>
       </c>
       <c r="I380" t="n">
         <v>101.98</v>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="R380" t="inlineStr"/>
       <c r="S380" t="n">
-        <v>101.0984164528164</v>
+        <v>22.69733535134277</v>
       </c>
     </row>
     <row r="381">
@@ -23676,7 +23676,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H381" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I381" t="n">
         <v>99.76000000000001</v>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="R381" t="inlineStr"/>
       <c r="S381" t="n">
-        <v>206.8570830537431</v>
+        <v>30.07238508137786</v>
       </c>
     </row>
     <row r="382">
@@ -23737,7 +23737,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H382" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I382" t="n">
         <v>100.57</v>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="R382" t="inlineStr"/>
       <c r="S382" t="n">
-        <v>338.1858102011792</v>
+        <v>41.456434369958</v>
       </c>
     </row>
     <row r="383">
@@ -23798,7 +23798,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H383" t="n">
-        <v>15.4</v>
+        <v>-9.222222222222223</v>
       </c>
       <c r="I383" t="n">
         <v>100.43</v>
@@ -23829,7 +23829,7 @@
       </c>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>99.7151638548835</v>
+        <v>17.38648166406429</v>
       </c>
     </row>
     <row r="384">
@@ -23859,7 +23859,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H384" t="n">
-        <v>15.7</v>
+        <v>-9.055555555555557</v>
       </c>
       <c r="I384" t="n">
         <v>100.72</v>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>124.8694553153769</v>
+        <v>21.6383080402705</v>
       </c>
     </row>
     <row r="385">
@@ -23920,7 +23920,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H385" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I385" t="n">
         <v>102.04</v>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>102.9022944045229</v>
+        <v>20.74184792324777</v>
       </c>
     </row>
     <row r="386">
@@ -23981,7 +23981,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H386" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I386" t="n">
         <v>102.41</v>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>33.19128024556529</v>
+        <v>9.773723551800064</v>
       </c>
     </row>
     <row r="387">
@@ -24042,7 +24042,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H387" t="n">
-        <v>-2.6</v>
+        <v>-19.22222222222222</v>
       </c>
       <c r="I387" t="n">
         <v>102.39</v>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="R387" t="inlineStr"/>
       <c r="S387" t="n">
-        <v>44.01975743305662</v>
+        <v>11.71537442655032</v>
       </c>
     </row>
     <row r="388">
@@ -24103,7 +24103,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H388" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I388" t="n">
         <v>101.62</v>
@@ -24134,7 +24134,7 @@
       </c>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>218.3904921046228</v>
+        <v>32.21473397215092</v>
       </c>
     </row>
     <row r="389">
@@ -24164,7 +24164,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H389" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I389" t="n">
         <v>101.28</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>37.89865667868483</v>
+        <v>10.79337683018188</v>
       </c>
     </row>
     <row r="390">
@@ -24225,7 +24225,7 @@
         <v>6.833333333333332</v>
       </c>
       <c r="H390" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I390" t="n">
         <v>101.78</v>
@@ -24256,7 +24256,7 @@
       </c>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>115.8915782778975</v>
+        <v>23.20202395275973</v>
       </c>
     </row>
     <row r="391">
@@ -24286,7 +24286,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H391" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I391" t="n">
         <v>101.23</v>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>148.0449135712152</v>
+        <v>25.86669686648872</v>
       </c>
     </row>
     <row r="392">
@@ -24347,7 +24347,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H392" t="n">
-        <v>19</v>
+        <v>-7.222222222222222</v>
       </c>
       <c r="I392" t="n">
         <v>100.84</v>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>139.4735739732715</v>
+        <v>22.61901353309655</v>
       </c>
     </row>
     <row r="393">
@@ -24408,7 +24408,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H393" t="n">
-        <v>24.1</v>
+        <v>-4.388888888888888</v>
       </c>
       <c r="I393" t="n">
         <v>99.66</v>
@@ -24439,7 +24439,7 @@
       </c>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>125.8033523400883</v>
+        <v>18.52331689905312</v>
       </c>
     </row>
     <row r="394">
@@ -24469,7 +24469,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H394" t="n">
-        <v>17</v>
+        <v>-8.333333333333334</v>
       </c>
       <c r="I394" t="n">
         <v>100.02</v>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>70.82969412191449</v>
+        <v>11.95318842910846</v>
       </c>
     </row>
     <row r="395">
@@ -24530,7 +24530,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I395" t="n">
         <v>100.29</v>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>255.5383403142175</v>
+        <v>31.77446380170663</v>
       </c>
     </row>
     <row r="396">
@@ -24591,7 +24591,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H396" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I396" t="n">
         <v>101.51</v>
@@ -24622,7 +24622,7 @@
       </c>
       <c r="R396" t="inlineStr"/>
       <c r="S396" t="n">
-        <v>691.3842909646197</v>
+        <v>80.80390439796795</v>
       </c>
     </row>
     <row r="397">
@@ -24652,7 +24652,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H397" t="n">
-        <v>16</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="I397" t="n">
         <v>102.27</v>
@@ -24683,7 +24683,7 @@
       </c>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>118.3564176258827</v>
+        <v>20.38387436942059</v>
       </c>
     </row>
     <row r="398">
@@ -24713,7 +24713,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H398" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I398" t="n">
         <v>102.22</v>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>136.5165834545134</v>
+        <v>22.99206282593978</v>
       </c>
     </row>
     <row r="399">
@@ -24774,7 +24774,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H399" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I399" t="n">
         <v>101.57</v>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>126.6848574902364</v>
+        <v>19.35749823023862</v>
       </c>
     </row>
     <row r="400">
@@ -24835,7 +24835,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H400" t="n">
-        <v>22</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="I400" t="n">
         <v>100.17</v>
@@ -24866,7 +24866,7 @@
       </c>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>147.0138896152287</v>
+        <v>22.50606862965399</v>
       </c>
     </row>
     <row r="401">
@@ -24896,7 +24896,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>27.4</v>
+        <v>-2.555555555555556</v>
       </c>
       <c r="I401" t="n">
         <v>99.91</v>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>121.1499963103341</v>
+        <v>16.81705880472034</v>
       </c>
     </row>
     <row r="402">
@@ -24957,7 +24957,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H402" t="n">
-        <v>28.1</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="I402" t="n">
         <v>99.47</v>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>156.7052715734482</v>
+        <v>21.48966048239661</v>
       </c>
     </row>
     <row r="403">
@@ -25018,7 +25018,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H403" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I403" t="n">
         <v>99.87</v>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>118.8654652672253</v>
+        <v>18.40439208461218</v>
       </c>
     </row>
     <row r="404">
@@ -25079,7 +25079,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H404" t="n">
-        <v>21.9</v>
+        <v>-5.611111111111112</v>
       </c>
       <c r="I404" t="n">
         <v>101.71</v>
@@ -25110,7 +25110,7 @@
       </c>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>223.8457908338581</v>
+        <v>34.33271067244096</v>
       </c>
     </row>
     <row r="405">
@@ -25140,7 +25140,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H405" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I405" t="n">
         <v>101.29</v>
@@ -25171,7 +25171,7 @@
       </c>
       <c r="R405" t="inlineStr"/>
       <c r="S405" t="n">
-        <v>158.7287415855566</v>
+        <v>25.00264230162617</v>
       </c>
     </row>
     <row r="406">
@@ -25201,7 +25201,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H406" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I406" t="n">
         <v>100.24</v>
@@ -25232,7 +25232,7 @@
       </c>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>100.4821858743438</v>
+        <v>15.88879563736592</v>
       </c>
     </row>
     <row r="407">
@@ -25262,7 +25262,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H407" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I407" t="n">
         <v>99.37</v>
@@ -25293,7 +25293,7 @@
       </c>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>361.3284333616909</v>
+        <v>41.5406431274177</v>
       </c>
     </row>
     <row r="408">
@@ -25323,7 +25323,7 @@
         <v>16.5</v>
       </c>
       <c r="H408" t="n">
-        <v>26.9</v>
+        <v>-2.833333333333334</v>
       </c>
       <c r="I408" t="n">
         <v>100.67</v>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="R408" t="inlineStr"/>
       <c r="S408" t="n">
-        <v>188.9828240208964</v>
+        <v>26.46381916527686</v>
       </c>
     </row>
     <row r="409">
@@ -25384,7 +25384,7 @@
         <v>17.05555555555556</v>
       </c>
       <c r="H409" t="n">
-        <v>29.9</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I409" t="n">
         <v>100.78</v>
@@ -25415,7 +25415,7 @@
       </c>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>217.2337897263784</v>
+        <v>28.88871661595738</v>
       </c>
     </row>
     <row r="410">
@@ -25445,7 +25445,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H410" t="n">
-        <v>28.3</v>
+        <v>-2.055555555555555</v>
       </c>
       <c r="I410" t="n">
         <v>100.52</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>168.0881534137129</v>
+        <v>22.97120143368325</v>
       </c>
     </row>
     <row r="411">
@@ -25506,7 +25506,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H411" t="n">
-        <v>29.5</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I411" t="n">
         <v>101.31</v>
@@ -25537,7 +25537,7 @@
       </c>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>209.3156902142982</v>
+        <v>28.02459961788688</v>
       </c>
     </row>
     <row r="412">
@@ -25567,7 +25567,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H412" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I412" t="n">
         <v>101.21</v>
@@ -25598,7 +25598,7 @@
       </c>
       <c r="R412" t="inlineStr"/>
       <c r="S412" t="n">
-        <v>120.6231917469126</v>
+        <v>17.8584401985282</v>
       </c>
     </row>
     <row r="413">
@@ -25628,7 +25628,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H413" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I413" t="n">
         <v>100.98</v>
@@ -25659,7 +25659,7 @@
       </c>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>879.0705010728267</v>
+        <v>85.13704704187721</v>
       </c>
     </row>
     <row r="414">
@@ -25689,7 +25689,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H414" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I414" t="n">
         <v>101.21</v>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>314.3614171850397</v>
+        <v>36.52014081746158</v>
       </c>
     </row>
     <row r="415">
@@ -25750,7 +25750,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H415" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I415" t="n">
         <v>101.05</v>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="R415" t="inlineStr"/>
       <c r="S415" t="n">
-        <v>284.3101814665599</v>
+        <v>33.73596202135075</v>
       </c>
     </row>
     <row r="416">
@@ -25811,7 +25811,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H416" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I416" t="n">
         <v>100.6</v>
@@ -25842,7 +25842,7 @@
       </c>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>160.6821485689767</v>
+        <v>23.83295797144542</v>
       </c>
     </row>
     <row r="417">
@@ -25872,7 +25872,7 @@
         <v>21</v>
       </c>
       <c r="H417" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I417" t="n">
         <v>100.57</v>
@@ -25903,7 +25903,7 @@
       </c>
       <c r="R417" t="inlineStr"/>
       <c r="S417" t="n">
-        <v>120.013570904852</v>
+        <v>17.70317573118304</v>
       </c>
     </row>
     <row r="418">
@@ -25933,7 +25933,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H418" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I418" t="n">
         <v>100.55</v>
@@ -25964,7 +25964,7 @@
       </c>
       <c r="R418" t="inlineStr"/>
       <c r="S418" t="n">
-        <v>279.7956856598886</v>
+        <v>34.90183694626653</v>
       </c>
     </row>
     <row r="419">
@@ -25994,7 +25994,7 @@
         <v>17.38888888888889</v>
       </c>
       <c r="H419" t="n">
-        <v>37.8</v>
+        <v>3.222222222222221</v>
       </c>
       <c r="I419" t="n">
         <v>100.74</v>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>330.9101596770328</v>
+        <v>38.79119881940606</v>
       </c>
     </row>
     <row r="420">
@@ -26055,7 +26055,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H420" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I420" t="n">
         <v>100.84</v>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>241.9192470091344</v>
+        <v>28.92674029000908</v>
       </c>
     </row>
     <row r="421">
@@ -26116,7 +26116,7 @@
         <v>25.5</v>
       </c>
       <c r="H421" t="n">
-        <v>33.9</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="I421" t="n">
         <v>100.34</v>
@@ -26147,7 +26147,7 @@
       </c>
       <c r="R421" t="inlineStr"/>
       <c r="S421" t="n">
-        <v>162.311377367491</v>
+        <v>20.21450906058967</v>
       </c>
     </row>
     <row r="422">
@@ -26177,7 +26177,7 @@
         <v>30.94444444444445</v>
       </c>
       <c r="H422" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I422" t="n">
         <v>100.05</v>
@@ -26208,7 +26208,7 @@
       </c>
       <c r="R422" t="inlineStr"/>
       <c r="S422" t="n">
-        <v>80.97814276607085</v>
+        <v>11.26037989452818</v>
       </c>
     </row>
     <row r="423">
@@ -26238,7 +26238,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H423" t="n">
-        <v>50.6</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I423" t="n">
         <v>100.14</v>
@@ -26269,7 +26269,7 @@
       </c>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>414.3112605669401</v>
+        <v>40.68333665869853</v>
       </c>
     </row>
     <row r="424">
@@ -26299,7 +26299,7 @@
         <v>27</v>
       </c>
       <c r="H424" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I424" t="n">
         <v>99.97</v>
@@ -26330,7 +26330,7 @@
       </c>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>285.4984997040053</v>
+        <v>29.73007534785158</v>
       </c>
     </row>
     <row r="425">
@@ -26360,7 +26360,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H425" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I425" t="n">
         <v>99.86</v>
@@ -26391,7 +26391,7 @@
       </c>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>303.1792181055036</v>
+        <v>31.69926116112889</v>
       </c>
     </row>
     <row r="426">
@@ -26421,7 +26421,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H426" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I426" t="n">
         <v>99.92</v>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>248.885135666324</v>
+        <v>27.94954924783181</v>
       </c>
     </row>
     <row r="427">
@@ -26482,7 +26482,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H427" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I427" t="n">
         <v>99.61</v>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>122.1457733857101</v>
+        <v>15.868224517043</v>
       </c>
     </row>
     <row r="428">
@@ -26543,7 +26543,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H428" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I428" t="n">
         <v>100.3</v>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="R428" t="inlineStr"/>
       <c r="S428" t="n">
-        <v>190.332800755299</v>
+        <v>22.51590600370005</v>
       </c>
     </row>
     <row r="429">
@@ -26604,7 +26604,7 @@
         <v>17</v>
       </c>
       <c r="H429" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I429" t="n">
         <v>100.19</v>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="R429" t="inlineStr"/>
       <c r="S429" t="n">
-        <v>768.7535133280822</v>
+        <v>72.64645771607341</v>
       </c>
     </row>
     <row r="430">
@@ -26665,7 +26665,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H430" t="n">
-        <v>45</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I430" t="n">
         <v>99.17</v>
@@ -26696,7 +26696,7 @@
       </c>
       <c r="R430" t="inlineStr"/>
       <c r="S430" t="n">
-        <v>361.5363713283419</v>
+        <v>38.21416922253169</v>
       </c>
     </row>
     <row r="431">
@@ -26726,7 +26726,7 @@
         <v>17.5</v>
       </c>
       <c r="H431" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I431" t="n">
         <v>99.39</v>
@@ -26757,7 +26757,7 @@
       </c>
       <c r="R431" t="inlineStr"/>
       <c r="S431" t="n">
-        <v>804.8460968164607</v>
+        <v>74.613514339497</v>
       </c>
     </row>
     <row r="432">
@@ -26787,7 +26787,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H432" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I432" t="n">
         <v>99.84999999999999</v>
@@ -26818,7 +26818,7 @@
       </c>
       <c r="R432" t="inlineStr"/>
       <c r="S432" t="n">
-        <v>698.784679164545</v>
+        <v>64.3242242189736</v>
       </c>
     </row>
     <row r="433">
@@ -26848,7 +26848,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H433" t="n">
-        <v>53.2</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="I433" t="n">
         <v>100.32</v>
@@ -26879,7 +26879,7 @@
       </c>
       <c r="R433" t="inlineStr"/>
       <c r="S433" t="n">
-        <v>680.1609618805418</v>
+        <v>64.66631845972931</v>
       </c>
     </row>
     <row r="434">
@@ -26909,7 +26909,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H434" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I434" t="n">
         <v>100.03</v>
@@ -26940,7 +26940,7 @@
       </c>
       <c r="R434" t="inlineStr"/>
       <c r="S434" t="n">
-        <v>589.4690606316842</v>
+        <v>53.81939695799285</v>
       </c>
     </row>
     <row r="435">
@@ -26970,7 +26970,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H435" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I435" t="n">
         <v>99.84</v>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>692.9549561648404</v>
+        <v>62.75725955810872</v>
       </c>
     </row>
     <row r="436">
@@ -27031,7 +27031,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H436" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I436" t="n">
         <v>100.77</v>
@@ -27062,7 +27062,7 @@
       </c>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>175.5615235267517</v>
+        <v>20.70541340847049</v>
       </c>
     </row>
     <row r="437">
@@ -27092,7 +27092,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H437" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I437" t="n">
         <v>100.32</v>
@@ -27123,7 +27123,7 @@
       </c>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>193.5023424783819</v>
+        <v>21.29732986165618</v>
       </c>
     </row>
     <row r="438">
@@ -27153,7 +27153,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H438" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I438" t="n">
         <v>100.16</v>
@@ -27184,7 +27184,7 @@
       </c>
       <c r="R438" t="inlineStr"/>
       <c r="S438" t="n">
-        <v>232.2632134552832</v>
+        <v>24.18647678961106</v>
       </c>
     </row>
     <row r="439">
@@ -27214,7 +27214,7 @@
         <v>31</v>
       </c>
       <c r="H439" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I439" t="n">
         <v>100.06</v>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>259.7419642112718</v>
+        <v>26.10008235442467</v>
       </c>
     </row>
     <row r="440">
@@ -27275,7 +27275,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H440" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I440" t="n">
         <v>99.88</v>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="R440" t="inlineStr"/>
       <c r="S440" t="n">
-        <v>311.3849429399065</v>
+        <v>30.88910868605583</v>
       </c>
     </row>
     <row r="441">
@@ -27336,7 +27336,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H441" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I441" t="n">
         <v>100.34</v>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>740.8079582653569</v>
+        <v>65.80525853476205</v>
       </c>
     </row>
     <row r="442">
@@ -27397,7 +27397,7 @@
         <v>23.5</v>
       </c>
       <c r="H442" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I442" t="n">
         <v>100.56</v>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>665.8244860755257</v>
+        <v>59.07810481061223</v>
       </c>
     </row>
     <row r="443">
@@ -27458,7 +27458,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H443" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I443" t="n">
         <v>100.37</v>
@@ -27489,7 +27489,7 @@
       </c>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="n">
-        <v>474.2282816921061</v>
+        <v>45.19752807842297</v>
       </c>
     </row>
     <row r="444">
@@ -27519,7 +27519,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H444" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I444" t="n">
         <v>100.38</v>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>361.5773446662194</v>
+        <v>35.01838289938783</v>
       </c>
     </row>
     <row r="445">
@@ -27580,7 +27580,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H445" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I445" t="n">
         <v>100.34</v>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>470.5935228575612</v>
+        <v>44.30967956775802</v>
       </c>
     </row>
     <row r="446">
@@ -27641,7 +27641,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H446" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I446" t="n">
         <v>100.61</v>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>503.2331410813566</v>
+        <v>47.61271158796843</v>
       </c>
     </row>
     <row r="447">
@@ -27702,7 +27702,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I447" t="n">
         <v>100.48</v>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="R447" t="inlineStr"/>
       <c r="S447" t="n">
-        <v>430.4565563677299</v>
+        <v>42.10901270119445</v>
       </c>
     </row>
     <row r="448">
@@ -27763,7 +27763,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H448" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I448" t="n">
         <v>100.51</v>
@@ -27794,7 +27794,7 @@
       </c>
       <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
-        <v>1087.054716299057</v>
+        <v>88.68169584899354</v>
       </c>
     </row>
     <row r="449">
@@ -27824,7 +27824,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H449" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I449" t="n">
         <v>99.42</v>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>427.380567956853</v>
+        <v>38.00656173084712</v>
       </c>
     </row>
     <row r="450">
@@ -27885,7 +27885,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H450" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I450" t="n">
         <v>99.72999999999999</v>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="R450" t="inlineStr"/>
       <c r="S450" t="n">
-        <v>394.9846088332881</v>
+        <v>37.05652906160908</v>
       </c>
     </row>
     <row r="451">
@@ -27946,7 +27946,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H451" t="n">
-        <v>53.4</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="I451" t="n">
         <v>100.15</v>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="R451" t="inlineStr"/>
       <c r="S451" t="n">
-        <v>429.2842999447387</v>
+        <v>40.71492063165593</v>
       </c>
     </row>
     <row r="452">
@@ -28007,7 +28007,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H452" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I452" t="n">
         <v>100.18</v>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>520.5605783170031</v>
+        <v>48.20164923101886</v>
       </c>
     </row>
     <row r="453">
@@ -28068,7 +28068,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H453" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I453" t="n">
         <v>99.69</v>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="R453" t="inlineStr"/>
       <c r="S453" t="n">
-        <v>416.9116261842991</v>
+        <v>40.02869317086898</v>
       </c>
     </row>
     <row r="454">
@@ -28129,7 +28129,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H454" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I454" t="n">
         <v>100.44</v>
@@ -28160,7 +28160,7 @@
       </c>
       <c r="R454" t="inlineStr"/>
       <c r="S454" t="n">
-        <v>473.9247205265129</v>
+        <v>44.83973568264933</v>
       </c>
     </row>
     <row r="455">
@@ -28190,7 +28190,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H455" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I455" t="n">
         <v>100.65</v>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>389.698993399101</v>
+        <v>38.12194197053154</v>
       </c>
     </row>
     <row r="456">
@@ -28251,7 +28251,7 @@
         <v>26</v>
       </c>
       <c r="H456" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I456" t="n">
         <v>100.08</v>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>617.8993657834781</v>
+        <v>53.8599463751988</v>
       </c>
     </row>
     <row r="457">
@@ -28312,7 +28312,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H457" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I457" t="n">
         <v>100.4</v>
@@ -28343,7 +28343,7 @@
       </c>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>267.168273717864</v>
+        <v>29.40517815475171</v>
       </c>
     </row>
     <row r="458">
@@ -28373,7 +28373,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H458" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I458" t="n">
         <v>100.27</v>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>285.5040284532014</v>
+        <v>30.59583700898025</v>
       </c>
     </row>
     <row r="459">
@@ -28434,7 +28434,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H459" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I459" t="n">
         <v>99.96000000000001</v>
@@ -28465,7 +28465,7 @@
       </c>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>390.5138845437285</v>
+        <v>36.94793414424944</v>
       </c>
     </row>
     <row r="460">
@@ -28495,7 +28495,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H460" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I460" t="n">
         <v>100.43</v>
@@ -28526,7 +28526,7 @@
       </c>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>419.51482981082</v>
+        <v>39.69181869806354</v>
       </c>
     </row>
     <row r="461">
@@ -28556,7 +28556,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H461" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I461" t="n">
         <v>100.29</v>
@@ -28587,7 +28587,7 @@
       </c>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>424.3320033696127</v>
+        <v>40.09896072788619</v>
       </c>
     </row>
     <row r="462">
@@ -28617,7 +28617,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H462" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I462" t="n">
         <v>100.55</v>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>176.6855815871198</v>
+        <v>21.02956936747197</v>
       </c>
     </row>
     <row r="463">
@@ -28678,7 +28678,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H463" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I463" t="n">
         <v>100.29</v>
@@ -28709,7 +28709,7 @@
       </c>
       <c r="R463" t="inlineStr"/>
       <c r="S463" t="n">
-        <v>203.877246654584</v>
+        <v>24.30321367532241</v>
       </c>
     </row>
     <row r="464">
@@ -28739,7 +28739,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H464" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I464" t="n">
         <v>100.82</v>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="n">
-        <v>503.2811329918418</v>
+        <v>54.69177421227541</v>
       </c>
     </row>
     <row r="465">
@@ -28800,7 +28800,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H465" t="n">
-        <v>38.2</v>
+        <v>3.444444444444446</v>
       </c>
       <c r="I465" t="n">
         <v>101.17</v>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="R465" t="inlineStr"/>
       <c r="S465" t="n">
-        <v>316.4316218776987</v>
+        <v>36.87109941470462</v>
       </c>
     </row>
     <row r="466">
@@ -28861,7 +28861,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H466" t="n">
-        <v>48.2</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="I466" t="n">
         <v>101.1</v>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>483.1425515938931</v>
+        <v>48.92915828574714</v>
       </c>
     </row>
     <row r="467">
@@ -28922,7 +28922,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H467" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I467" t="n">
         <v>101.51</v>
@@ -28953,7 +28953,7 @@
       </c>
       <c r="R467" t="inlineStr"/>
       <c r="S467" t="n">
-        <v>436.7479207547578</v>
+        <v>47.19626138838549</v>
       </c>
     </row>
     <row r="468">
@@ -28983,7 +28983,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H468" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I468" t="n">
         <v>100.57</v>
@@ -29014,7 +29014,7 @@
       </c>
       <c r="R468" t="inlineStr"/>
       <c r="S468" t="n">
-        <v>360.9464921845097</v>
+        <v>39.11426665379062</v>
       </c>
     </row>
     <row r="469">
@@ -29044,7 +29044,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H469" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I469" t="n">
         <v>100.84</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="R469" t="inlineStr"/>
       <c r="S469" t="n">
-        <v>376.8021575748381</v>
+        <v>39.29077458931929</v>
       </c>
     </row>
     <row r="470">
@@ -29105,7 +29105,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H470" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I470" t="n">
         <v>100.89</v>
@@ -29136,7 +29136,7 @@
       </c>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>306.1955722994746</v>
+        <v>32.01463963577051</v>
       </c>
     </row>
     <row r="471">
@@ -29166,7 +29166,7 @@
         <v>19</v>
       </c>
       <c r="H471" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I471" t="n">
         <v>100.76</v>
@@ -29197,7 +29197,7 @@
       </c>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>197.8247763378907</v>
+        <v>26.08756231887217</v>
       </c>
     </row>
     <row r="472">
@@ -29227,7 +29227,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H472" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I472" t="n">
         <v>100.82</v>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>398.0330156857334</v>
+        <v>43.93349818313844</v>
       </c>
     </row>
     <row r="473">
@@ -29288,7 +29288,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H473" t="n">
-        <v>50.6</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I473" t="n">
         <v>100.53</v>
@@ -29319,7 +29319,7 @@
       </c>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>535.6562858282634</v>
+        <v>52.59882384050799</v>
       </c>
     </row>
     <row r="474">
@@ -29349,7 +29349,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H474" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I474" t="n">
         <v>100.76</v>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>589.9475078921884</v>
+        <v>58.9748708775267</v>
       </c>
     </row>
     <row r="475">
@@ -29410,7 +29410,7 @@
         <v>13.5</v>
       </c>
       <c r="H475" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I475" t="n">
         <v>101.39</v>
@@ -29441,7 +29441,7 @@
       </c>
       <c r="R475" t="inlineStr"/>
       <c r="S475" t="n">
-        <v>269.862590842356</v>
+        <v>36.00890329961248</v>
       </c>
     </row>
     <row r="476">
@@ -29471,7 +29471,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H476" t="n">
-        <v>35</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I476" t="n">
         <v>101.85</v>
@@ -29502,7 +29502,7 @@
       </c>
       <c r="R476" t="inlineStr"/>
       <c r="S476" t="n">
-        <v>421.4289589857057</v>
+        <v>51.57965264187511</v>
       </c>
     </row>
     <row r="477">
@@ -29532,7 +29532,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H477" t="n">
-        <v>18.3</v>
+        <v>-7.611111111111111</v>
       </c>
       <c r="I477" t="n">
         <v>101.67</v>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="R477" t="inlineStr"/>
       <c r="S477" t="n">
-        <v>138.9157012055679</v>
+        <v>22.84170176348441</v>
       </c>
     </row>
     <row r="478">
@@ -29593,7 +29593,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H478" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I478" t="n">
         <v>101.18</v>
@@ -29624,7 +29624,7 @@
       </c>
       <c r="R478" t="inlineStr"/>
       <c r="S478" t="n">
-        <v>194.0217366917066</v>
+        <v>27.80318996722005</v>
       </c>
     </row>
     <row r="479">
@@ -29654,7 +29654,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H479" t="n">
-        <v>31.1</v>
+        <v>-0.4999999999999992</v>
       </c>
       <c r="I479" t="n">
         <v>102.08</v>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="R479" t="inlineStr"/>
       <c r="S479" t="n">
-        <v>400.0484681442962</v>
+        <v>52.1435475860369</v>
       </c>
     </row>
     <row r="480">
@@ -29715,7 +29715,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H480" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I480" t="n">
         <v>102.1</v>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="R480" t="inlineStr"/>
       <c r="S480" t="n">
-        <v>173.8133672046338</v>
+        <v>27.69760797368014</v>
       </c>
     </row>
     <row r="481">
@@ -29776,7 +29776,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H481" t="n">
-        <v>29.2</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="I481" t="n">
         <v>102.64</v>
@@ -29807,7 +29807,7 @@
       </c>
       <c r="R481" t="inlineStr"/>
       <c r="S481" t="n">
-        <v>282.982127941872</v>
+        <v>38.08114165476895</v>
       </c>
     </row>
     <row r="482">
@@ -29837,7 +29837,7 @@
         <v>9.888888888888888</v>
       </c>
       <c r="H482" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I482" t="n">
         <v>102.54</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="R482" t="inlineStr"/>
       <c r="S482" t="n">
-        <v>308.602062198067</v>
+        <v>42.46667847521209</v>
       </c>
     </row>
     <row r="483">
@@ -29898,7 +29898,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H483" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I483" t="n">
         <v>102.21</v>
@@ -29929,7 +29929,7 @@
       </c>
       <c r="R483" t="inlineStr"/>
       <c r="S483" t="n">
-        <v>329.3380248645705</v>
+        <v>46.85819284686601</v>
       </c>
     </row>
     <row r="484">
@@ -29959,7 +29959,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H484" t="n">
-        <v>20.1</v>
+        <v>-6.611111111111111</v>
       </c>
       <c r="I484" t="n">
         <v>101.59</v>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="R484" t="inlineStr"/>
       <c r="S484" t="n">
-        <v>176.6303615566143</v>
+        <v>28.03777269763349</v>
       </c>
     </row>
     <row r="485">
@@ -30020,7 +30020,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H485" t="n">
-        <v>10.2</v>
+        <v>-12.11111111111111</v>
       </c>
       <c r="I485" t="n">
         <v>102.25</v>
@@ -30051,7 +30051,7 @@
       </c>
       <c r="R485" t="inlineStr"/>
       <c r="S485" t="n">
-        <v>128.0407048943198</v>
+        <v>24.95469838848691</v>
       </c>
     </row>
     <row r="486">
@@ -30081,7 +30081,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H486" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I486" t="n">
         <v>101.52</v>
@@ -30112,7 +30112,7 @@
       </c>
       <c r="R486" t="inlineStr"/>
       <c r="S486" t="n">
-        <v>131.5472384648857</v>
+        <v>21.29176982635356</v>
       </c>
     </row>
     <row r="487">
@@ -30142,7 +30142,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H487" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I487" t="n">
         <v>103.24</v>
@@ -30173,7 +30173,7 @@
       </c>
       <c r="R487" t="inlineStr"/>
       <c r="S487" t="n">
-        <v>189.5577464954503</v>
+        <v>36.7806969429482</v>
       </c>
     </row>
     <row r="488">
@@ -30203,7 +30203,7 @@
         <v>7.444444444444444</v>
       </c>
       <c r="H488" t="n">
-        <v>14.4</v>
+        <v>-9.777777777777779</v>
       </c>
       <c r="I488" t="n">
         <v>102.24</v>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="R488" t="inlineStr"/>
       <c r="S488" t="n">
-        <v>158.7915132771919</v>
+        <v>28.26861098137037</v>
       </c>
     </row>
     <row r="489">
@@ -30264,7 +30264,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H489" t="n">
-        <v>15.8</v>
+        <v>-9</v>
       </c>
       <c r="I489" t="n">
         <v>101.69</v>
@@ -30295,7 +30295,7 @@
       </c>
       <c r="R489" t="inlineStr"/>
       <c r="S489" t="n">
-        <v>153.4406772097988</v>
+        <v>26.53478787104504</v>
       </c>
     </row>
     <row r="490">
@@ -30325,7 +30325,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H490" t="n">
-        <v>17.7</v>
+        <v>-7.944444444444446</v>
       </c>
       <c r="I490" t="n">
         <v>102.03</v>
@@ -30356,7 +30356,7 @@
       </c>
       <c r="R490" t="inlineStr"/>
       <c r="S490" t="n">
-        <v>273.4579761547014</v>
+        <v>45.50441711993258</v>
       </c>
     </row>
     <row r="491">
@@ -30386,7 +30386,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H491" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I491" t="n">
         <v>101.4</v>
@@ -30417,7 +30417,7 @@
       </c>
       <c r="R491" t="inlineStr"/>
       <c r="S491" t="n">
-        <v>227.9458052257318</v>
+        <v>35.29371600056951</v>
       </c>
     </row>
     <row r="492">
@@ -30447,7 +30447,7 @@
         <v>7.5</v>
       </c>
       <c r="H492" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I492" t="n">
         <v>101.55</v>
@@ -30478,7 +30478,7 @@
       </c>
       <c r="R492" t="inlineStr"/>
       <c r="S492" t="n">
-        <v>326.2997414325051</v>
+        <v>46.34340490742715</v>
       </c>
     </row>
     <row r="493">
@@ -30508,7 +30508,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H493" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I493" t="n">
         <v>100.55</v>
@@ -30539,7 +30539,7 @@
       </c>
       <c r="R493" t="inlineStr"/>
       <c r="S493" t="n">
-        <v>209.2930736324205</v>
+        <v>30.1533726774382</v>
       </c>
     </row>
     <row r="494">
@@ -30569,7 +30569,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H494" t="n">
-        <v>28.7</v>
+        <v>-1.833333333333334</v>
       </c>
       <c r="I494" t="n">
         <v>101.7</v>
@@ -30600,7 +30600,7 @@
       </c>
       <c r="R494" t="inlineStr"/>
       <c r="S494" t="n">
-        <v>549.1897942945581</v>
+        <v>74.53888012368807</v>
       </c>
     </row>
     <row r="495">
@@ -30630,7 +30630,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H495" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I495" t="n">
         <v>101.49</v>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="R495" t="inlineStr"/>
       <c r="S495" t="n">
-        <v>254.3409528994763</v>
+        <v>42.66391933818596</v>
       </c>
     </row>
     <row r="496">
@@ -30691,7 +30691,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H496" t="n">
-        <v>19</v>
+        <v>-7.222222222222222</v>
       </c>
       <c r="I496" t="n">
         <v>101.6</v>
@@ -30722,7 +30722,7 @@
       </c>
       <c r="R496" t="inlineStr"/>
       <c r="S496" t="n">
-        <v>267.9404900409158</v>
+        <v>43.45303126355271</v>
       </c>
     </row>
     <row r="497">
@@ -30752,7 +30752,7 @@
         <v>-5</v>
       </c>
       <c r="H497" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I497" t="n">
         <v>102.38</v>
@@ -30783,7 +30783,7 @@
       </c>
       <c r="R497" t="inlineStr"/>
       <c r="S497" t="n">
-        <v>345.490849475734</v>
+        <v>63.89757947456852</v>
       </c>
     </row>
     <row r="498">
@@ -30813,7 +30813,7 @@
         <v>-7.722222222222221</v>
       </c>
       <c r="H498" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I498" t="n">
         <v>102.52</v>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="R498" t="inlineStr"/>
       <c r="S498" t="n">
-        <v>328.1438569896127</v>
+        <v>66.14342292378811</v>
       </c>
     </row>
     <row r="499">
@@ -30874,7 +30874,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H499" t="n">
-        <v>6.9</v>
+        <v>-13.94444444444445</v>
       </c>
       <c r="I499" t="n">
         <v>102.17</v>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="R499" t="inlineStr"/>
       <c r="S499" t="n">
-        <v>244.7955717993624</v>
+        <v>51.42576303919636</v>
       </c>
     </row>
     <row r="500">
@@ -30935,7 +30935,7 @@
         <v>-12.33333333333333</v>
       </c>
       <c r="H500" t="n">
-        <v>-7.1</v>
+        <v>-21.72222222222222</v>
       </c>
       <c r="I500" t="n">
         <v>103.93</v>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="R500" t="inlineStr"/>
       <c r="S500" t="n">
-        <v>150.9897483022901</v>
+        <v>45.47696819129929</v>
       </c>
     </row>
     <row r="501">
@@ -30996,7 +30996,7 @@
         <v>-12.94444444444444</v>
       </c>
       <c r="H501" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="I501" t="n">
         <v>104.78</v>
@@ -31027,7 +31027,7 @@
       </c>
       <c r="R501" t="inlineStr"/>
       <c r="S501" t="n">
-        <v>200.7639946517165</v>
+        <v>55.48078979922654</v>
       </c>
     </row>
     <row r="502">
@@ -31057,7 +31057,7 @@
         <v>-5.166666666666667</v>
       </c>
       <c r="H502" t="n">
-        <v>14.5</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="I502" t="n">
         <v>103.23</v>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="R502" t="inlineStr"/>
       <c r="S502" t="n">
-        <v>395.9577546523341</v>
+        <v>70.34247726557966</v>
       </c>
     </row>
     <row r="503">
@@ -31118,7 +31118,7 @@
         <v>-5</v>
       </c>
       <c r="H503" t="n">
-        <v>6.9</v>
+        <v>-13.94444444444445</v>
       </c>
       <c r="I503" t="n">
         <v>103.01</v>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="R503" t="inlineStr"/>
       <c r="S503" t="n">
-        <v>235.691412878402</v>
+        <v>49.51319445840426</v>
       </c>
     </row>
     <row r="504">
@@ -31179,7 +31179,7 @@
         <v>-2.222222222222222</v>
       </c>
       <c r="H504" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I504" t="n">
         <v>102.26</v>
@@ -31210,7 +31210,7 @@
       </c>
       <c r="R504" t="inlineStr"/>
       <c r="S504" t="n">
-        <v>198.159184839671</v>
+        <v>41.1488887136862</v>
       </c>
     </row>
     <row r="505">
@@ -31240,7 +31240,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H505" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I505" t="n">
         <v>101.5</v>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="R505" t="inlineStr"/>
       <c r="S505" t="n">
-        <v>101.258474171852</v>
+        <v>22.84372562336498</v>
       </c>
     </row>
     <row r="506">
@@ -31301,7 +31301,7 @@
         <v>-19.5</v>
       </c>
       <c r="H506" t="n">
-        <v>-12</v>
+        <v>-24.44444444444445</v>
       </c>
       <c r="I506" t="n">
         <v>104.15</v>
@@ -31332,7 +31332,7 @@
       </c>
       <c r="R506" t="inlineStr"/>
       <c r="S506" t="n">
-        <v>186.3203060712549</v>
+        <v>64.81964168647566</v>
       </c>
     </row>
     <row r="507">
@@ -31362,7 +31362,7 @@
         <v>-14.66666666666667</v>
       </c>
       <c r="H507" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I507" t="n">
         <v>103.32</v>
@@ -31393,7 +31393,7 @@
       </c>
       <c r="R507" t="inlineStr"/>
       <c r="S507" t="n">
-        <v>252.6858507818957</v>
+        <v>67.60906746206713</v>
       </c>
     </row>
     <row r="508">
@@ -31423,7 +31423,7 @@
         <v>-19.88888888888889</v>
       </c>
       <c r="H508" t="n">
-        <v>-9.9</v>
+        <v>-23.27777777777778</v>
       </c>
       <c r="I508" t="n">
         <v>104.66</v>
@@ -31454,7 +31454,7 @@
       </c>
       <c r="R508" t="inlineStr"/>
       <c r="S508" t="n">
-        <v>227.6832483618391</v>
+        <v>74.37130949477778</v>
       </c>
     </row>
     <row r="509">
@@ -31484,7 +31484,7 @@
         <v>-17.66666666666667</v>
       </c>
       <c r="H509" t="n">
-        <v>-7.4</v>
+        <v>-21.88888888888889</v>
       </c>
       <c r="I509" t="n">
         <v>104.3</v>
@@ -31515,7 +31515,7 @@
       </c>
       <c r="R509" t="inlineStr"/>
       <c r="S509" t="n">
-        <v>228.9830809343681</v>
+        <v>69.55920142015049</v>
       </c>
     </row>
     <row r="510">
@@ -31545,7 +31545,7 @@
         <v>-13.11111111111111</v>
       </c>
       <c r="H510" t="n">
-        <v>0.7</v>
+        <v>-17.38888888888889</v>
       </c>
       <c r="I510" t="n">
         <v>103.32</v>
@@ -31576,7 +31576,7 @@
       </c>
       <c r="R510" t="inlineStr"/>
       <c r="S510" t="n">
-        <v>287.5498987881877</v>
+        <v>70.2351216716405</v>
       </c>
     </row>
     <row r="511">
@@ -31606,7 +31606,7 @@
         <v>-7.444444444444444</v>
       </c>
       <c r="H511" t="n">
-        <v>6.8</v>
+        <v>-14</v>
       </c>
       <c r="I511" t="n">
         <v>102.16</v>
@@ -31637,7 +31637,7 @@
       </c>
       <c r="R511" t="inlineStr"/>
       <c r="S511" t="n">
-        <v>282.1599061618692</v>
+        <v>59.41326477545014</v>
       </c>
     </row>
     <row r="512">
@@ -31667,7 +31667,7 @@
         <v>-8.333333333333334</v>
       </c>
       <c r="H512" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I512" t="n">
         <v>102.11</v>
@@ -31698,7 +31698,7 @@
       </c>
       <c r="R512" t="inlineStr"/>
       <c r="S512" t="n">
-        <v>214.4616945913604</v>
+        <v>50.82381111950514</v>
       </c>
     </row>
     <row r="513">
@@ -31728,7 +31728,7 @@
         <v>-6.611111111111111</v>
       </c>
       <c r="H513" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I513" t="n">
         <v>101.12</v>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="R513" t="inlineStr"/>
       <c r="S513" t="n">
-        <v>275.740878424994</v>
+        <v>57.25917135410331</v>
       </c>
     </row>
     <row r="514">
@@ -31789,7 +31789,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H514" t="n">
-        <v>14.8</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="I514" t="n">
         <v>100.11</v>
@@ -31820,7 +31820,7 @@
       </c>
       <c r="R514" t="inlineStr"/>
       <c r="S514" t="n">
-        <v>213.4321638168534</v>
+        <v>37.68002469399752</v>
       </c>
     </row>
     <row r="515">
@@ -31850,7 +31850,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H515" t="n">
-        <v>6</v>
+        <v>-14.44444444444444</v>
       </c>
       <c r="I515" t="n">
         <v>101.94</v>
@@ -31881,7 +31881,7 @@
       </c>
       <c r="R515" t="inlineStr"/>
       <c r="S515" t="n">
-        <v>298.7409234589458</v>
+        <v>64.0946660202561</v>
       </c>
     </row>
     <row r="516">
@@ -31911,7 +31911,7 @@
         <v>-12.55555555555556</v>
       </c>
       <c r="H516" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I516" t="n">
         <v>103.53</v>
@@ -31942,7 +31942,7 @@
       </c>
       <c r="R516" t="inlineStr"/>
       <c r="S516" t="n">
-        <v>197.4913007229036</v>
+        <v>54.281173646841</v>
       </c>
     </row>
     <row r="517">
@@ -31972,7 +31972,7 @@
         <v>-14.44444444444444</v>
       </c>
       <c r="H517" t="n">
-        <v>-12.7</v>
+        <v>-24.83333333333334</v>
       </c>
       <c r="I517" t="n">
         <v>103.77</v>
@@ -32003,7 +32003,7 @@
       </c>
       <c r="R517" t="inlineStr"/>
       <c r="S517" t="n">
-        <v>115.2549396799283</v>
+        <v>40.96531435650589</v>
       </c>
     </row>
     <row r="518">
@@ -32033,7 +32033,7 @@
         <v>-16.66666666666667</v>
       </c>
       <c r="H518" t="n">
-        <v>-9.4</v>
+        <v>-23</v>
       </c>
       <c r="I518" t="n">
         <v>103.15</v>
@@ -32064,7 +32064,7 @@
       </c>
       <c r="R518" t="inlineStr"/>
       <c r="S518" t="n">
-        <v>180.1811892988848</v>
+        <v>57.99466365789521</v>
       </c>
     </row>
     <row r="519">
@@ -32094,7 +32094,7 @@
         <v>-16.16666666666667</v>
       </c>
       <c r="H519" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I519" t="n">
         <v>103.29</v>
@@ -32125,7 +32125,7 @@
       </c>
       <c r="R519" t="inlineStr"/>
       <c r="S519" t="n">
-        <v>216.4026606418302</v>
+        <v>64.08259517539999</v>
       </c>
     </row>
     <row r="520">
@@ -32155,7 +32155,7 @@
         <v>-16.55555555555556</v>
       </c>
       <c r="H520" t="n">
-        <v>-2.7</v>
+        <v>-19.27777777777778</v>
       </c>
       <c r="I520" t="n">
         <v>103.92</v>
@@ -32186,7 +32186,7 @@
       </c>
       <c r="R520" t="inlineStr"/>
       <c r="S520" t="n">
-        <v>297.6940750455204</v>
+        <v>79.43934219100247</v>
       </c>
     </row>
     <row r="521">
@@ -32216,7 +32216,7 @@
         <v>-23</v>
       </c>
       <c r="H521" t="n">
-        <v>-15.3</v>
+        <v>-26.27777777777778</v>
       </c>
       <c r="I521" t="n">
         <v>104.76</v>
@@ -32247,7 +32247,7 @@
       </c>
       <c r="R521" t="inlineStr"/>
       <c r="S521" t="n">
-        <v>193.1734823944932</v>
+        <v>74.49459315589792</v>
       </c>
     </row>
     <row r="522">
@@ -32277,7 +32277,7 @@
         <v>-25.05555555555556</v>
       </c>
       <c r="H522" t="n">
-        <v>-19.2</v>
+        <v>-28.44444444444445</v>
       </c>
       <c r="I522" t="n">
         <v>104.12</v>
@@ -32308,7 +32308,7 @@
       </c>
       <c r="R522" t="inlineStr"/>
       <c r="S522" t="n">
-        <v>167.2302642755013</v>
+        <v>73.31643978179943</v>
       </c>
     </row>
     <row r="523">
@@ -32338,7 +32338,7 @@
         <v>-29.38888888888889</v>
       </c>
       <c r="H523" t="n">
-        <v>-28.2</v>
+        <v>-33.44444444444445</v>
       </c>
       <c r="I523" t="n">
         <v>105.63</v>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="R523" t="inlineStr"/>
       <c r="S523" t="n">
-        <v>111.7357948709462</v>
+        <v>67.8424000140424</v>
       </c>
     </row>
     <row r="524">
@@ -32399,7 +32399,7 @@
         <v>-26.55555555555555</v>
       </c>
       <c r="H524" t="n">
-        <v>-23</v>
+        <v>-30.55555555555556</v>
       </c>
       <c r="I524" t="n">
         <v>105.14</v>
@@ -32430,7 +32430,7 @@
       </c>
       <c r="R524" t="inlineStr"/>
       <c r="S524" t="n">
-        <v>137.6859866613994</v>
+        <v>68.89775120051679</v>
       </c>
     </row>
     <row r="525">
@@ -32460,7 +32460,7 @@
         <v>-22.44444444444445</v>
       </c>
       <c r="H525" t="n">
-        <v>-14.4</v>
+        <v>-25.77777777777778</v>
       </c>
       <c r="I525" t="n">
         <v>104.9</v>
@@ -32491,7 +32491,7 @@
       </c>
       <c r="R525" t="inlineStr"/>
       <c r="S525" t="n">
-        <v>198.0694074331561</v>
+        <v>74.23044957143304</v>
       </c>
     </row>
     <row r="526">
@@ -32521,7 +32521,7 @@
         <v>-17.27777777777778</v>
       </c>
       <c r="H526" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I526" t="n">
         <v>104</v>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="R526" t="inlineStr"/>
       <c r="S526" t="n">
-        <v>264.2018052729471</v>
+        <v>75.24355461203146</v>
       </c>
     </row>
     <row r="527">
@@ -32582,7 +32582,7 @@
         <v>-18.94444444444445</v>
       </c>
       <c r="H527" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I527" t="n">
         <v>104.42</v>
@@ -32613,7 +32613,7 @@
       </c>
       <c r="R527" t="inlineStr"/>
       <c r="S527" t="n">
-        <v>257.1799280557508</v>
+        <v>77.90238800351344</v>
       </c>
     </row>
     <row r="528">
@@ -32643,7 +32643,7 @@
         <v>-20.33333333333334</v>
       </c>
       <c r="H528" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I528" t="n">
         <v>103.96</v>
@@ -32674,7 +32674,7 @@
       </c>
       <c r="R528" t="inlineStr"/>
       <c r="S528" t="n">
-        <v>242.2329433806628</v>
+        <v>78.42681266165596</v>
       </c>
     </row>
     <row r="529">
@@ -32704,7 +32704,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H529" t="n">
-        <v>8.1</v>
+        <v>-13.27777777777778</v>
       </c>
       <c r="I529" t="n">
         <v>102.48</v>
@@ -32735,7 +32735,7 @@
       </c>
       <c r="R529" t="inlineStr"/>
       <c r="S529" t="n">
-        <v>373.1641527444667</v>
+        <v>76.25294851566095</v>
       </c>
     </row>
     <row r="530">
@@ -32765,7 +32765,7 @@
         <v>-15.05555555555556</v>
       </c>
       <c r="H530" t="n">
-        <v>1.4</v>
+        <v>-17</v>
       </c>
       <c r="I530" t="n">
         <v>103.14</v>
@@ -32796,7 +32796,7 @@
       </c>
       <c r="R530" t="inlineStr"/>
       <c r="S530" t="n">
-        <v>354.5035464642176</v>
+        <v>85.07051716540779</v>
       </c>
     </row>
   </sheetData>
